--- a/pagenumber.xlsx
+++ b/pagenumber.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB9886B-41C1-CF40-9FFC-A4C440CB93C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2016B22F-B7C2-C348-8564-0A75CD17D0B0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43740" yWindow="1160" windowWidth="41420" windowHeight="28420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43720" yWindow="1140" windowWidth="41420" windowHeight="28420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能list" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="168">
   <si>
     <t>影片專區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -896,10 +896,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05070-d.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>06000.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -992,6 +988,30 @@
   </si>
   <si>
     <t>產後照護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05011.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05012.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05013.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05014.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05015.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同05010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,7 +1130,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1138,6 +1158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,7 +1493,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1681,27 +1707,237 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1720,224 +1956,29 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2281,17 +2322,17 @@
   <dimension ref="A1:AC310"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="4"/>
     <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="132" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="84" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="142" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="94" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="22.1640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="50.5" style="4" customWidth="1"/>
@@ -2310,19 +2351,19 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="133" t="s">
+      <c r="E1" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="71" t="s">
         <v>122</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2344,12 +2385,14 @@
       <c r="B2" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="69" t="s">
+      <c r="C2" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="161" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="134"/>
-      <c r="F2" s="69" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="161" t="s">
         <v>130</v>
       </c>
       <c r="G2" s="69" t="s">
@@ -2368,12 +2411,14 @@
       <c r="B3" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="69" t="s">
+      <c r="C3" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="161" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="134"/>
-      <c r="F3" s="69" t="s">
+      <c r="E3" s="86"/>
+      <c r="F3" s="161" t="s">
         <v>131</v>
       </c>
       <c r="G3" s="69" t="s">
@@ -2388,27 +2433,27 @@
       <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="104">
+      <c r="A4" s="108">
         <v>1</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="61"/>
       <c r="E4" s="61"/>
       <c r="F4" s="61"/>
       <c r="G4" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="112" t="s">
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="117" t="s">
+      <c r="J4" s="113"/>
+      <c r="K4" s="116" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="54"/>
@@ -2431,21 +2476,21 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="104"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="123"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
       <c r="G5" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="108"/>
+      <c r="H5" s="112"/>
       <c r="I5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2466,9 +2511,9 @@
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="104"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="123"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
       <c r="F6" s="61"/>
@@ -2479,8 +2524,8 @@
         <v>47</v>
       </c>
       <c r="I6" s="9"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -2501,23 +2546,23 @@
       <c r="AC6" s="3"/>
     </row>
     <row r="7" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="123"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
       <c r="F7" s="61"/>
       <c r="G7" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="108" t="s">
+      <c r="H7" s="112" t="s">
         <v>48</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -2538,21 +2583,21 @@
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A8" s="105"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="124"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
       <c r="F8" s="62"/>
       <c r="G8" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="112"/>
+      <c r="H8" s="117"/>
       <c r="I8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -2579,11 +2624,11 @@
       <c r="B9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="125"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="118" t="s">
+      <c r="G9" s="72" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="46"/>
@@ -2612,19 +2657,19 @@
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="1:29" s="1" customFormat="1" ht="71" customHeight="1" thickBot="1">
-      <c r="A10" s="73">
+      <c r="A10" s="118">
         <v>3</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="137" t="s">
+      <c r="E10" s="160" t="s">
         <v>133</v>
       </c>
       <c r="G10" s="70" t="s">
@@ -2656,15 +2701,15 @@
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:29" s="1" customFormat="1" ht="81" customHeight="1" thickBot="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="127" t="s">
+      <c r="A11" s="119"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="138" t="s">
+      <c r="E11" s="157" t="s">
         <v>139</v>
       </c>
       <c r="G11" s="70" t="s">
@@ -2696,13 +2741,13 @@
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="A12" s="73">
+      <c r="A12" s="118">
         <v>4</v>
       </c>
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -2712,8 +2757,8 @@
       <c r="H12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="127"/>
       <c r="K12" s="21" t="s">
         <v>51</v>
       </c>
@@ -2737,13 +2782,13 @@
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="1:29" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="A13" s="74"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="121" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="135"/>
+      <c r="A13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="157"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
       <c r="H13" s="5" t="s">
@@ -2774,24 +2819,24 @@
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="129" t="s">
+      <c r="A14" s="122"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="159" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="135"/>
+      <c r="E14" s="87"/>
       <c r="G14" s="68"/>
-      <c r="H14" s="85" t="s">
+      <c r="H14" s="128" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88" t="s">
+      <c r="J14" s="129"/>
+      <c r="K14" s="129" t="s">
         <v>52</v>
       </c>
       <c r="L14" s="3"/>
@@ -2814,18 +2859,18 @@
       <c r="AC14" s="3"/>
     </row>
     <row r="15" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="129"/>
+      <c r="A15" s="122"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="68"/>
-      <c r="E15" s="135"/>
+      <c r="E15" s="87"/>
       <c r="G15" s="68"/>
-      <c r="H15" s="85"/>
+      <c r="H15" s="128"/>
       <c r="I15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -2846,18 +2891,18 @@
       <c r="AC15" s="3"/>
     </row>
     <row r="16" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A16" s="74"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="129"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="68"/>
-      <c r="E16" s="135"/>
+      <c r="E16" s="87"/>
       <c r="G16" s="68"/>
-      <c r="H16" s="85"/>
+      <c r="H16" s="128"/>
       <c r="I16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -2878,18 +2923,18 @@
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="1:29" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="129"/>
+      <c r="A17" s="122"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="68"/>
-      <c r="E17" s="135"/>
+      <c r="E17" s="87"/>
       <c r="G17" s="68"/>
-      <c r="H17" s="85"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -2910,18 +2955,18 @@
       <c r="AC17" s="3"/>
     </row>
     <row r="18" spans="1:29" s="1" customFormat="1" ht="25" customHeight="1">
-      <c r="A18" s="74"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="130"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="68"/>
-      <c r="E18" s="135"/>
+      <c r="E18" s="87"/>
       <c r="G18" s="68"/>
-      <c r="H18" s="85"/>
+      <c r="H18" s="128"/>
       <c r="I18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="131"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2942,8 +2987,8 @@
       <c r="AC18" s="3"/>
     </row>
     <row r="19" spans="1:29" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="A19" s="75"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="125"/>
       <c r="C19" s="63"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -2954,8 +2999,8 @@
       <c r="H19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="95"/>
-      <c r="J19" s="96"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="135"/>
       <c r="K19" s="24" t="s">
         <v>51</v>
       </c>
@@ -2979,10 +3024,10 @@
       <c r="AC19" s="3"/>
     </row>
     <row r="20" spans="1:29" s="1" customFormat="1" ht="29" customHeight="1" thickBot="1">
-      <c r="A20" s="73">
+      <c r="A20" s="118">
         <v>5</v>
       </c>
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="136" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="63"/>
@@ -3020,20 +3065,20 @@
       <c r="AC20" s="3"/>
     </row>
     <row r="21" spans="1:29" s="1" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="A21" s="74"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="144" t="s">
+      <c r="A21" s="122"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="156" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="136" t="s">
+      <c r="E21" s="156" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="150" t="s">
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="99" t="s">
         <v>110</v>
       </c>
       <c r="I21" s="49"/>
@@ -3061,24 +3106,27 @@
       <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A22" s="74"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="138" t="s">
+      <c r="A22" s="122"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="157" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="151" t="s">
+      <c r="G22" s="158" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="152" t="s">
-        <v>160</v>
-      </c>
-      <c r="J22" s="88"/>
-      <c r="K22" s="99" t="s">
+      <c r="I22" s="138" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" s="129"/>
+      <c r="K22" s="141" t="s">
         <v>55</v>
       </c>
       <c r="L22" s="3"/>
@@ -3101,16 +3149,19 @@
       <c r="AC22" s="3"/>
     </row>
     <row r="23" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A23" s="74"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="66"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="158" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="128"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="130"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -3131,16 +3182,19 @@
       <c r="AC23" s="3"/>
     </row>
     <row r="24" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A24" s="74"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="129"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="103"/>
       <c r="D24" s="66"/>
-      <c r="E24" s="138"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="66"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
+      <c r="G24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" s="128"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="130"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -3161,16 +3215,19 @@
       <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A25" s="74"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="129"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="66"/>
-      <c r="E25" s="138"/>
+      <c r="E25" s="90"/>
       <c r="F25" s="66"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
+      <c r="G25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="128"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="130"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3191,16 +3248,19 @@
       <c r="AC25" s="3"/>
     </row>
     <row r="26" spans="1:29" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A26" s="74"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="129"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="66"/>
-      <c r="E26" s="138"/>
+      <c r="E26" s="90"/>
       <c r="F26" s="66"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
+      <c r="G26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="128"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="130"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -3221,17 +3281,19 @@
       <c r="AC26" s="3"/>
     </row>
     <row r="27" spans="1:29" s="1" customFormat="1" ht="38" customHeight="1" thickBot="1">
-      <c r="A27" s="74"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="129"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="67"/>
-      <c r="E27" s="140"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="67"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
+      <c r="G27" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="128"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -3252,25 +3314,23 @@
       <c r="AC27" s="3"/>
     </row>
     <row r="28" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="74"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="138" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="G28" s="146"/>
-      <c r="H28" s="151" t="s">
+      <c r="A28" s="122"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="123" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="90"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="152" t="s">
-        <v>161</v>
-      </c>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88" t="s">
+      <c r="I28" s="138" t="s">
+        <v>160</v>
+      </c>
+      <c r="J28" s="129"/>
+      <c r="K28" s="129" t="s">
         <v>55</v>
       </c>
       <c r="L28" s="3"/>
@@ -3293,16 +3353,16 @@
       <c r="AC28" s="3"/>
     </row>
     <row r="29" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A29" s="74"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="138"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="90"/>
       <c r="F29" s="66"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -3323,16 +3383,16 @@
       <c r="AC29" s="3"/>
     </row>
     <row r="30" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A30" s="74"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="138"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="90"/>
       <c r="F30" s="66"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="130"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -3353,16 +3413,16 @@
       <c r="AC30" s="3"/>
     </row>
     <row r="31" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A31" s="74"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="138"/>
+      <c r="A31" s="122"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="90"/>
       <c r="F31" s="66"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="130"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -3383,16 +3443,16 @@
       <c r="AC31" s="3"/>
     </row>
     <row r="32" spans="1:29" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A32" s="74"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="138"/>
+      <c r="A32" s="122"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="90"/>
       <c r="F32" s="66"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="130"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -3413,16 +3473,16 @@
       <c r="AC32" s="3"/>
     </row>
     <row r="33" spans="1:29" s="1" customFormat="1" ht="31" customHeight="1" thickBot="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="138"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="90"/>
       <c r="F33" s="66"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -3443,20 +3503,20 @@
       <c r="AC33" s="3"/>
     </row>
     <row r="34" spans="1:29" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="A34" s="73">
+      <c r="A34" s="118">
         <v>6</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="144" t="s">
+      <c r="C34" s="102" t="s">
         <v>124</v>
       </c>
       <c r="D34" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="89" t="s">
         <v>142</v>
-      </c>
-      <c r="E34" s="137" t="s">
-        <v>143</v>
       </c>
       <c r="F34" s="64"/>
       <c r="G34" s="64"/>
@@ -3488,11 +3548,11 @@
       <c r="AC34" s="3"/>
     </row>
     <row r="35" spans="1:29" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="A35" s="74"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="129"/>
+      <c r="A35" s="122"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="103"/>
       <c r="D35" s="68"/>
-      <c r="E35" s="135"/>
+      <c r="E35" s="87"/>
       <c r="F35" s="68"/>
       <c r="G35" s="68"/>
       <c r="H35" s="5" t="s">
@@ -3523,12 +3583,12 @@
       <c r="AC35" s="3"/>
     </row>
     <row r="36" spans="1:29" s="7" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="A36" s="75"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="145"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="120"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="65"/>
       <c r="H36" s="32" t="s">
         <v>40</v>
@@ -3558,29 +3618,29 @@
       <c r="AC36" s="3"/>
     </row>
     <row r="37" spans="1:29" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A37" s="73">
+      <c r="A37" s="118">
         <v>7</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="144" t="s">
+      <c r="C37" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="123"/>
+      <c r="E37" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="113"/>
-      <c r="E37" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="G37" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="H37" s="153" t="s">
+      <c r="G37" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="84" t="s">
+      <c r="I37" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="156" t="s">
+      <c r="J37" s="101" t="s">
         <v>59</v>
       </c>
       <c r="K37" s="39" t="s">
@@ -3588,16 +3648,16 @@
       </c>
     </row>
     <row r="38" spans="1:29" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A38" s="74"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="138"/>
+      <c r="A38" s="122"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="90"/>
       <c r="F38" s="66"/>
       <c r="G38" s="58"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="149" t="s">
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="98" t="s">
         <v>39</v>
       </c>
       <c r="K38" s="11" t="s">
@@ -3605,16 +3665,16 @@
       </c>
     </row>
     <row r="39" spans="1:29" s="3" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="A39" s="74"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="140"/>
+      <c r="A39" s="122"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="92"/>
       <c r="F39" s="67"/>
       <c r="G39" s="67"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="149" t="s">
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="98" t="s">
         <v>60</v>
       </c>
       <c r="K39" s="11" t="s">
@@ -3622,20 +3682,20 @@
       </c>
     </row>
     <row r="40" spans="1:29" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A40" s="74"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="144" t="s">
+      <c r="A40" s="122"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="138" t="s">
-        <v>148</v>
+      <c r="D40" s="124"/>
+      <c r="E40" s="90" t="s">
+        <v>147</v>
       </c>
       <c r="F40" s="66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G40" s="58"/>
-      <c r="H40" s="85"/>
+      <c r="H40" s="128"/>
       <c r="I40" s="6" t="s">
         <v>57</v>
       </c>
@@ -3645,14 +3705,14 @@
       </c>
     </row>
     <row r="41" spans="1:29" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A41" s="74"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="138"/>
+      <c r="A41" s="122"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="90"/>
       <c r="F41" s="66"/>
       <c r="G41" s="58"/>
-      <c r="H41" s="85"/>
+      <c r="H41" s="128"/>
       <c r="I41" s="6" t="s">
         <v>65</v>
       </c>
@@ -3662,14 +3722,14 @@
       </c>
     </row>
     <row r="42" spans="1:29" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A42" s="74"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="138"/>
+      <c r="A42" s="122"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="90"/>
       <c r="F42" s="66"/>
       <c r="G42" s="58"/>
-      <c r="H42" s="85"/>
+      <c r="H42" s="128"/>
       <c r="I42" s="6" t="s">
         <v>66</v>
       </c>
@@ -3679,14 +3739,14 @@
       </c>
     </row>
     <row r="43" spans="1:29" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A43" s="74"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="138"/>
+      <c r="A43" s="122"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="90"/>
       <c r="F43" s="66"/>
       <c r="G43" s="58"/>
-      <c r="H43" s="85"/>
+      <c r="H43" s="128"/>
       <c r="I43" s="6" t="s">
         <v>67</v>
       </c>
@@ -3696,14 +3756,14 @@
       </c>
     </row>
     <row r="44" spans="1:29" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A44" s="74"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="138"/>
+      <c r="A44" s="122"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="90"/>
       <c r="F44" s="66"/>
       <c r="G44" s="58"/>
-      <c r="H44" s="85"/>
+      <c r="H44" s="128"/>
       <c r="I44" s="6" t="s">
         <v>68</v>
       </c>
@@ -3713,14 +3773,14 @@
       </c>
     </row>
     <row r="45" spans="1:29" s="3" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="A45" s="74"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="129"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="140"/>
+      <c r="A45" s="122"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="92"/>
       <c r="F45" s="67"/>
       <c r="G45" s="67"/>
-      <c r="H45" s="86"/>
+      <c r="H45" s="142"/>
       <c r="I45" s="19" t="s">
         <v>69</v>
       </c>
@@ -3730,18 +3790,18 @@
       </c>
     </row>
     <row r="46" spans="1:29" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A46" s="74"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="129"/>
+      <c r="A46" s="122"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="103"/>
       <c r="D46" s="66"/>
-      <c r="E46" s="138" t="s">
-        <v>150</v>
+      <c r="E46" s="90" t="s">
+        <v>149</v>
       </c>
       <c r="F46" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G46" s="58"/>
-      <c r="H46" s="153" t="s">
+      <c r="H46" s="154" t="s">
         <v>36</v>
       </c>
       <c r="I46" s="17" t="s">
@@ -3754,14 +3814,14 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="1:29" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A47" s="74"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="129"/>
+      <c r="A47" s="122"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="66"/>
-      <c r="E47" s="138"/>
+      <c r="E47" s="90"/>
       <c r="F47" s="66"/>
       <c r="G47" s="58"/>
-      <c r="H47" s="85"/>
+      <c r="H47" s="128"/>
       <c r="I47" s="6" t="s">
         <v>77</v>
       </c>
@@ -3771,14 +3831,14 @@
       </c>
     </row>
     <row r="48" spans="1:29" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A48" s="74"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="129"/>
+      <c r="A48" s="122"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="66"/>
-      <c r="E48" s="138"/>
+      <c r="E48" s="90"/>
       <c r="F48" s="66"/>
       <c r="G48" s="58"/>
-      <c r="H48" s="85"/>
+      <c r="H48" s="128"/>
       <c r="I48" s="55" t="s">
         <v>113</v>
       </c>
@@ -3788,14 +3848,14 @@
       </c>
     </row>
     <row r="49" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A49" s="74"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="129"/>
+      <c r="A49" s="122"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="103"/>
       <c r="D49" s="66"/>
-      <c r="E49" s="138"/>
+      <c r="E49" s="90"/>
       <c r="F49" s="66"/>
       <c r="G49" s="58"/>
-      <c r="H49" s="85"/>
+      <c r="H49" s="128"/>
       <c r="I49" s="6" t="s">
         <v>78</v>
       </c>
@@ -3805,14 +3865,14 @@
       </c>
     </row>
     <row r="50" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A50" s="74"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="129"/>
+      <c r="A50" s="122"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="103"/>
       <c r="D50" s="66"/>
-      <c r="E50" s="138"/>
+      <c r="E50" s="90"/>
       <c r="F50" s="66"/>
       <c r="G50" s="58"/>
-      <c r="H50" s="85"/>
+      <c r="H50" s="128"/>
       <c r="I50" s="6" t="s">
         <v>79</v>
       </c>
@@ -3822,14 +3882,14 @@
       </c>
     </row>
     <row r="51" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="A51" s="74"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="129"/>
+      <c r="A51" s="122"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="103"/>
       <c r="D51" s="66"/>
-      <c r="E51" s="138"/>
+      <c r="E51" s="90"/>
       <c r="F51" s="66"/>
       <c r="G51" s="58"/>
-      <c r="H51" s="86"/>
+      <c r="H51" s="142"/>
       <c r="I51" s="19" t="s">
         <v>9</v>
       </c>
@@ -3837,15 +3897,15 @@
       <c r="K51" s="23"/>
     </row>
     <row r="52" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A52" s="74"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="129"/>
+      <c r="A52" s="122"/>
+      <c r="B52" s="124"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="66"/>
-      <c r="E52" s="138"/>
+      <c r="E52" s="90"/>
       <c r="F52" s="66"/>
       <c r="G52" s="58"/>
-      <c r="H52" s="154" t="s">
-        <v>162</v>
+      <c r="H52" s="145" t="s">
+        <v>161</v>
       </c>
       <c r="I52" s="17" t="s">
         <v>82</v>
@@ -3856,14 +3916,14 @@
       </c>
     </row>
     <row r="53" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A53" s="74"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="129"/>
+      <c r="A53" s="122"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="66"/>
-      <c r="E53" s="138"/>
+      <c r="E53" s="90"/>
       <c r="F53" s="66"/>
       <c r="G53" s="58"/>
-      <c r="H53" s="71"/>
+      <c r="H53" s="146"/>
       <c r="I53" s="6" t="s">
         <v>38</v>
       </c>
@@ -3873,14 +3933,14 @@
       </c>
     </row>
     <row r="54" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="A54" s="74"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="145"/>
+      <c r="A54" s="122"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="67"/>
-      <c r="E54" s="140"/>
+      <c r="E54" s="92"/>
       <c r="F54" s="67"/>
       <c r="G54" s="67"/>
-      <c r="H54" s="71"/>
+      <c r="H54" s="146"/>
       <c r="I54" s="6" t="s">
         <v>41</v>
       </c>
@@ -3888,24 +3948,24 @@
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A55" s="74"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="144" t="s">
-        <v>145</v>
+      <c r="A55" s="122"/>
+      <c r="B55" s="124"/>
+      <c r="C55" s="102" t="s">
+        <v>144</v>
       </c>
       <c r="D55" s="66"/>
-      <c r="E55" s="138" t="s">
-        <v>152</v>
+      <c r="E55" s="90" t="s">
+        <v>151</v>
       </c>
       <c r="F55" s="66"/>
       <c r="G55" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="H55" s="71"/>
-      <c r="I55" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="H55" s="146"/>
+      <c r="I55" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="J55" s="149" t="s">
+      <c r="J55" s="98" t="s">
         <v>84</v>
       </c>
       <c r="K55" s="11" t="s">
@@ -3913,15 +3973,15 @@
       </c>
     </row>
     <row r="56" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A56" s="74"/>
-      <c r="B56" s="76"/>
-      <c r="C56" s="129"/>
+      <c r="A56" s="122"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="66"/>
-      <c r="E56" s="138"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="71"/>
+      <c r="H56" s="146"/>
+      <c r="I56" s="146"/>
       <c r="J56" s="6" t="s">
         <v>85</v>
       </c>
@@ -3930,15 +3990,15 @@
       </c>
     </row>
     <row r="57" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A57" s="74"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="129"/>
+      <c r="A57" s="122"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="66"/>
-      <c r="E57" s="138"/>
+      <c r="E57" s="90"/>
       <c r="F57" s="66"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="146"/>
       <c r="J57" s="6" t="s">
         <v>10</v>
       </c>
@@ -3947,15 +4007,15 @@
       </c>
     </row>
     <row r="58" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A58" s="74"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="129"/>
+      <c r="A58" s="122"/>
+      <c r="B58" s="124"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="66"/>
-      <c r="E58" s="138"/>
+      <c r="E58" s="90"/>
       <c r="F58" s="66"/>
       <c r="G58" s="58"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
+      <c r="H58" s="146"/>
+      <c r="I58" s="146"/>
       <c r="J58" s="6" t="s">
         <v>86</v>
       </c>
@@ -3964,15 +4024,15 @@
       </c>
     </row>
     <row r="59" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A59" s="74"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="129"/>
+      <c r="A59" s="122"/>
+      <c r="B59" s="124"/>
+      <c r="C59" s="103"/>
       <c r="D59" s="66"/>
-      <c r="E59" s="138"/>
+      <c r="E59" s="90"/>
       <c r="F59" s="66"/>
       <c r="G59" s="58"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
+      <c r="H59" s="146"/>
+      <c r="I59" s="146"/>
       <c r="J59" s="6" t="s">
         <v>87</v>
       </c>
@@ -3981,15 +4041,15 @@
       </c>
     </row>
     <row r="60" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="A60" s="74"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="145"/>
+      <c r="A60" s="122"/>
+      <c r="B60" s="124"/>
+      <c r="C60" s="104"/>
       <c r="D60" s="67"/>
-      <c r="E60" s="140"/>
+      <c r="E60" s="92"/>
       <c r="F60" s="67"/>
       <c r="G60" s="67"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
+      <c r="H60" s="147"/>
+      <c r="I60" s="147"/>
       <c r="J60" s="19" t="s">
         <v>88</v>
       </c>
@@ -3998,19 +4058,19 @@
       </c>
     </row>
     <row r="61" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A61" s="74"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="144" t="s">
+      <c r="A61" s="122"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="102" t="s">
         <v>127</v>
       </c>
       <c r="D61" s="66"/>
-      <c r="E61" s="138" t="s">
-        <v>154</v>
+      <c r="E61" s="90" t="s">
+        <v>153</v>
       </c>
       <c r="F61" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="H61" s="154" t="s">
+        <v>152</v>
+      </c>
+      <c r="H61" s="145" t="s">
         <v>50</v>
       </c>
       <c r="I61" s="17" t="s">
@@ -4022,13 +4082,13 @@
       </c>
     </row>
     <row r="62" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A62" s="74"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="129"/>
+      <c r="A62" s="122"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="66"/>
-      <c r="E62" s="138"/>
+      <c r="E62" s="90"/>
       <c r="F62" s="58"/>
-      <c r="H62" s="71"/>
+      <c r="H62" s="146"/>
       <c r="I62" s="6" t="s">
         <v>12</v>
       </c>
@@ -4038,13 +4098,13 @@
       </c>
     </row>
     <row r="63" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A63" s="74"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="129"/>
+      <c r="A63" s="122"/>
+      <c r="B63" s="124"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="66"/>
-      <c r="E63" s="138"/>
+      <c r="E63" s="90"/>
       <c r="F63" s="58"/>
-      <c r="H63" s="71"/>
+      <c r="H63" s="146"/>
       <c r="I63" s="6" t="s">
         <v>14</v>
       </c>
@@ -4054,13 +4114,13 @@
       </c>
     </row>
     <row r="64" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A64" s="74"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="129"/>
+      <c r="A64" s="122"/>
+      <c r="B64" s="124"/>
+      <c r="C64" s="103"/>
       <c r="D64" s="66"/>
-      <c r="E64" s="138"/>
+      <c r="E64" s="90"/>
       <c r="F64" s="58"/>
-      <c r="H64" s="71"/>
+      <c r="H64" s="146"/>
       <c r="I64" s="6" t="s">
         <v>13</v>
       </c>
@@ -4070,13 +4130,13 @@
       </c>
     </row>
     <row r="65" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A65" s="74"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="129"/>
+      <c r="A65" s="122"/>
+      <c r="B65" s="124"/>
+      <c r="C65" s="103"/>
       <c r="D65" s="66"/>
-      <c r="E65" s="138"/>
+      <c r="E65" s="90"/>
       <c r="F65" s="58"/>
-      <c r="H65" s="71"/>
+      <c r="H65" s="146"/>
       <c r="I65" s="6" t="s">
         <v>15</v>
       </c>
@@ -4086,13 +4146,13 @@
       </c>
     </row>
     <row r="66" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A66" s="74"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="129"/>
+      <c r="A66" s="122"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="103"/>
       <c r="D66" s="66"/>
-      <c r="E66" s="138"/>
+      <c r="E66" s="90"/>
       <c r="F66" s="66"/>
-      <c r="H66" s="71"/>
+      <c r="H66" s="146"/>
       <c r="I66" s="6" t="s">
         <v>20</v>
       </c>
@@ -4102,13 +4162,13 @@
       </c>
     </row>
     <row r="67" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A67" s="74"/>
-      <c r="B67" s="76"/>
-      <c r="C67" s="129"/>
+      <c r="A67" s="122"/>
+      <c r="B67" s="124"/>
+      <c r="C67" s="103"/>
       <c r="D67" s="66"/>
-      <c r="E67" s="138"/>
+      <c r="E67" s="90"/>
       <c r="F67" s="66"/>
-      <c r="H67" s="71"/>
+      <c r="H67" s="146"/>
       <c r="I67" s="6" t="s">
         <v>18</v>
       </c>
@@ -4118,13 +4178,13 @@
       </c>
     </row>
     <row r="68" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A68" s="74"/>
-      <c r="B68" s="76"/>
-      <c r="C68" s="129"/>
+      <c r="A68" s="122"/>
+      <c r="B68" s="124"/>
+      <c r="C68" s="103"/>
       <c r="D68" s="66"/>
-      <c r="E68" s="138"/>
+      <c r="E68" s="90"/>
       <c r="F68" s="66"/>
-      <c r="H68" s="71"/>
+      <c r="H68" s="146"/>
       <c r="I68" s="6" t="s">
         <v>17</v>
       </c>
@@ -4134,13 +4194,13 @@
       </c>
     </row>
     <row r="69" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A69" s="74"/>
-      <c r="B69" s="76"/>
-      <c r="C69" s="129"/>
+      <c r="A69" s="122"/>
+      <c r="B69" s="124"/>
+      <c r="C69" s="103"/>
       <c r="D69" s="66"/>
-      <c r="E69" s="138"/>
+      <c r="E69" s="90"/>
       <c r="F69" s="66"/>
-      <c r="H69" s="71"/>
+      <c r="H69" s="146"/>
       <c r="I69" s="6" t="s">
         <v>94</v>
       </c>
@@ -4150,13 +4210,13 @@
       </c>
     </row>
     <row r="70" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A70" s="74"/>
-      <c r="B70" s="76"/>
-      <c r="C70" s="129"/>
+      <c r="A70" s="122"/>
+      <c r="B70" s="124"/>
+      <c r="C70" s="103"/>
       <c r="D70" s="66"/>
-      <c r="E70" s="138"/>
+      <c r="E70" s="90"/>
       <c r="F70" s="66"/>
-      <c r="H70" s="71"/>
+      <c r="H70" s="146"/>
       <c r="I70" s="6" t="s">
         <v>95</v>
       </c>
@@ -4166,13 +4226,13 @@
       </c>
     </row>
     <row r="71" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A71" s="74"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="129"/>
+      <c r="A71" s="122"/>
+      <c r="B71" s="124"/>
+      <c r="C71" s="103"/>
       <c r="D71" s="66"/>
-      <c r="E71" s="138"/>
+      <c r="E71" s="90"/>
       <c r="F71" s="66"/>
-      <c r="H71" s="71"/>
+      <c r="H71" s="146"/>
       <c r="I71" s="6" t="s">
         <v>96</v>
       </c>
@@ -4182,14 +4242,14 @@
       </c>
     </row>
     <row r="72" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="A72" s="74"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="129"/>
+      <c r="A72" s="122"/>
+      <c r="B72" s="124"/>
+      <c r="C72" s="103"/>
       <c r="D72" s="67"/>
-      <c r="E72" s="140"/>
+      <c r="E72" s="92"/>
       <c r="F72" s="67"/>
-      <c r="G72" s="148"/>
-      <c r="H72" s="72"/>
+      <c r="G72" s="97"/>
+      <c r="H72" s="147"/>
       <c r="I72" s="19" t="s">
         <v>97</v>
       </c>
@@ -4199,18 +4259,18 @@
       </c>
     </row>
     <row r="73" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="A73" s="74"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="129"/>
-      <c r="D73" s="119" t="s">
+      <c r="A73" s="122"/>
+      <c r="B73" s="124"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="E73" s="136" t="s">
-        <v>156</v>
-      </c>
-      <c r="F73" s="119"/>
-      <c r="G73" s="119"/>
-      <c r="H73" s="155" t="s">
+      <c r="F73" s="73"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="100" t="s">
         <v>21</v>
       </c>
       <c r="I73" s="33"/>
@@ -4220,18 +4280,18 @@
       </c>
     </row>
     <row r="74" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A74" s="74"/>
-      <c r="B74" s="76"/>
-      <c r="C74" s="129"/>
+      <c r="A74" s="122"/>
+      <c r="B74" s="124"/>
+      <c r="C74" s="103"/>
       <c r="D74" s="66"/>
-      <c r="E74" s="138" t="s">
-        <v>158</v>
+      <c r="E74" s="90" t="s">
+        <v>157</v>
       </c>
       <c r="F74" s="66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G74" s="58"/>
-      <c r="H74" s="154" t="s">
+      <c r="H74" s="145" t="s">
         <v>22</v>
       </c>
       <c r="I74" s="17" t="s">
@@ -4243,14 +4303,14 @@
       </c>
     </row>
     <row r="75" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A75" s="74"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="129"/>
+      <c r="A75" s="122"/>
+      <c r="B75" s="124"/>
+      <c r="C75" s="103"/>
       <c r="D75" s="66"/>
-      <c r="E75" s="138"/>
+      <c r="E75" s="90"/>
       <c r="F75" s="66"/>
       <c r="G75" s="58"/>
-      <c r="H75" s="71"/>
+      <c r="H75" s="146"/>
       <c r="I75" s="6" t="s">
         <v>99</v>
       </c>
@@ -4260,14 +4320,14 @@
       </c>
     </row>
     <row r="76" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A76" s="74"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="129"/>
+      <c r="A76" s="122"/>
+      <c r="B76" s="124"/>
+      <c r="C76" s="103"/>
       <c r="D76" s="66"/>
-      <c r="E76" s="138"/>
+      <c r="E76" s="90"/>
       <c r="F76" s="66"/>
       <c r="G76" s="58"/>
-      <c r="H76" s="71"/>
+      <c r="H76" s="146"/>
       <c r="I76" s="6" t="s">
         <v>100</v>
       </c>
@@ -4277,14 +4337,14 @@
       </c>
     </row>
     <row r="77" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A77" s="74"/>
-      <c r="B77" s="76"/>
-      <c r="C77" s="129"/>
+      <c r="A77" s="122"/>
+      <c r="B77" s="124"/>
+      <c r="C77" s="103"/>
       <c r="D77" s="66"/>
-      <c r="E77" s="138"/>
+      <c r="E77" s="90"/>
       <c r="F77" s="66"/>
       <c r="G77" s="58"/>
-      <c r="H77" s="71"/>
+      <c r="H77" s="146"/>
       <c r="I77" s="6" t="s">
         <v>96</v>
       </c>
@@ -4294,14 +4354,14 @@
       </c>
     </row>
     <row r="78" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A78" s="74"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="129"/>
+      <c r="A78" s="122"/>
+      <c r="B78" s="124"/>
+      <c r="C78" s="103"/>
       <c r="D78" s="66"/>
-      <c r="E78" s="138"/>
+      <c r="E78" s="90"/>
       <c r="F78" s="66"/>
       <c r="G78" s="58"/>
-      <c r="H78" s="71"/>
+      <c r="H78" s="146"/>
       <c r="I78" s="6" t="s">
         <v>16</v>
       </c>
@@ -4311,14 +4371,14 @@
       </c>
     </row>
     <row r="79" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A79" s="74"/>
-      <c r="B79" s="76"/>
-      <c r="C79" s="129"/>
+      <c r="A79" s="122"/>
+      <c r="B79" s="124"/>
+      <c r="C79" s="103"/>
       <c r="D79" s="66"/>
-      <c r="E79" s="138"/>
+      <c r="E79" s="90"/>
       <c r="F79" s="66"/>
       <c r="G79" s="58"/>
-      <c r="H79" s="71"/>
+      <c r="H79" s="146"/>
       <c r="I79" s="6" t="s">
         <v>11</v>
       </c>
@@ -4328,14 +4388,14 @@
       </c>
     </row>
     <row r="80" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A80" s="74"/>
-      <c r="B80" s="76"/>
-      <c r="C80" s="129"/>
+      <c r="A80" s="122"/>
+      <c r="B80" s="124"/>
+      <c r="C80" s="103"/>
       <c r="D80" s="66"/>
-      <c r="E80" s="138"/>
+      <c r="E80" s="90"/>
       <c r="F80" s="66"/>
       <c r="G80" s="58"/>
-      <c r="H80" s="71"/>
+      <c r="H80" s="146"/>
       <c r="I80" s="6" t="s">
         <v>101</v>
       </c>
@@ -4345,14 +4405,14 @@
       </c>
     </row>
     <row r="81" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A81" s="74"/>
-      <c r="B81" s="76"/>
-      <c r="C81" s="129"/>
+      <c r="A81" s="122"/>
+      <c r="B81" s="124"/>
+      <c r="C81" s="103"/>
       <c r="D81" s="66"/>
-      <c r="E81" s="138"/>
+      <c r="E81" s="90"/>
       <c r="F81" s="66"/>
       <c r="G81" s="58"/>
-      <c r="H81" s="71"/>
+      <c r="H81" s="146"/>
       <c r="I81" s="6" t="s">
         <v>102</v>
       </c>
@@ -4362,14 +4422,14 @@
       </c>
     </row>
     <row r="82" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A82" s="74"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="129"/>
+      <c r="A82" s="122"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="103"/>
       <c r="D82" s="66"/>
-      <c r="E82" s="138"/>
+      <c r="E82" s="90"/>
       <c r="F82" s="66"/>
       <c r="G82" s="58"/>
-      <c r="H82" s="71"/>
+      <c r="H82" s="146"/>
       <c r="I82" s="6" t="s">
         <v>106</v>
       </c>
@@ -4379,14 +4439,14 @@
       </c>
     </row>
     <row r="83" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="A83" s="75"/>
-      <c r="B83" s="77"/>
-      <c r="C83" s="145"/>
+      <c r="A83" s="119"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="104"/>
       <c r="D83" s="67"/>
-      <c r="E83" s="140"/>
+      <c r="E83" s="92"/>
       <c r="F83" s="67"/>
       <c r="G83" s="59"/>
-      <c r="H83" s="72"/>
+      <c r="H83" s="147"/>
       <c r="I83" s="19" t="s">
         <v>107</v>
       </c>
@@ -4396,54 +4456,54 @@
       </c>
     </row>
     <row r="84" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A84" s="78" t="s">
+      <c r="A84" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="79"/>
-      <c r="C84" s="79"/>
-      <c r="D84" s="79"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="79"/>
-      <c r="H84" s="79"/>
-      <c r="I84" s="79"/>
-      <c r="J84" s="79"/>
-      <c r="K84" s="80"/>
+      <c r="B84" s="149"/>
+      <c r="C84" s="149"/>
+      <c r="D84" s="149"/>
+      <c r="E84" s="149"/>
+      <c r="F84" s="149"/>
+      <c r="G84" s="149"/>
+      <c r="H84" s="149"/>
+      <c r="I84" s="149"/>
+      <c r="J84" s="149"/>
+      <c r="K84" s="150"/>
     </row>
     <row r="85" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="A85" s="81"/>
-      <c r="B85" s="82"/>
-      <c r="C85" s="82"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="82"/>
-      <c r="I85" s="82"/>
-      <c r="J85" s="82"/>
-      <c r="K85" s="83"/>
+      <c r="A85" s="151"/>
+      <c r="B85" s="152"/>
+      <c r="C85" s="152"/>
+      <c r="D85" s="152"/>
+      <c r="E85" s="152"/>
+      <c r="F85" s="152"/>
+      <c r="G85" s="152"/>
+      <c r="H85" s="152"/>
+      <c r="I85" s="152"/>
+      <c r="J85" s="152"/>
+      <c r="K85" s="153"/>
     </row>
     <row r="86" spans="1:11" s="3" customFormat="1" ht="101" customHeight="1" thickBot="1">
-      <c r="A86" s="101" t="s">
+      <c r="A86" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="B86" s="102"/>
-      <c r="C86" s="102"/>
-      <c r="D86" s="102"/>
-      <c r="E86" s="102"/>
-      <c r="F86" s="102"/>
-      <c r="G86" s="102"/>
-      <c r="H86" s="102"/>
-      <c r="I86" s="102"/>
-      <c r="J86" s="102"/>
-      <c r="K86" s="103"/>
+      <c r="B86" s="106"/>
+      <c r="C86" s="106"/>
+      <c r="D86" s="106"/>
+      <c r="E86" s="106"/>
+      <c r="F86" s="106"/>
+      <c r="G86" s="106"/>
+      <c r="H86" s="106"/>
+      <c r="I86" s="106"/>
+      <c r="J86" s="106"/>
+      <c r="K86" s="107"/>
     </row>
     <row r="87" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A87" s="27"/>
       <c r="B87" s="28"/>
-      <c r="C87" s="131"/>
+      <c r="C87" s="83"/>
       <c r="D87" s="28"/>
-      <c r="E87" s="141"/>
+      <c r="E87" s="93"/>
       <c r="F87" s="28"/>
       <c r="G87" s="28"/>
       <c r="H87" s="29"/>
@@ -4454,9 +4514,9 @@
     <row r="88" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A88" s="27"/>
       <c r="B88" s="28"/>
-      <c r="C88" s="131"/>
+      <c r="C88" s="83"/>
       <c r="D88" s="28"/>
-      <c r="E88" s="141"/>
+      <c r="E88" s="93"/>
       <c r="F88" s="28"/>
       <c r="G88" s="28"/>
       <c r="H88" s="29"/>
@@ -4467,9 +4527,9 @@
     <row r="89" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A89" s="27"/>
       <c r="B89" s="28"/>
-      <c r="C89" s="131"/>
+      <c r="C89" s="83"/>
       <c r="D89" s="28"/>
-      <c r="E89" s="141"/>
+      <c r="E89" s="93"/>
       <c r="F89" s="28"/>
       <c r="G89" s="28"/>
       <c r="H89" s="29"/>
@@ -4480,9 +4540,9 @@
     <row r="90" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A90" s="27"/>
       <c r="B90" s="28"/>
-      <c r="C90" s="131"/>
+      <c r="C90" s="83"/>
       <c r="D90" s="28"/>
-      <c r="E90" s="141"/>
+      <c r="E90" s="93"/>
       <c r="F90" s="28"/>
       <c r="G90" s="28"/>
       <c r="H90" s="29"/>
@@ -4493,9 +4553,9 @@
     <row r="91" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A91" s="27"/>
       <c r="B91" s="28"/>
-      <c r="C91" s="131"/>
+      <c r="C91" s="83"/>
       <c r="D91" s="28"/>
-      <c r="E91" s="141"/>
+      <c r="E91" s="93"/>
       <c r="F91" s="28"/>
       <c r="G91" s="28"/>
       <c r="H91" s="29"/>
@@ -4506,9 +4566,9 @@
     <row r="92" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A92" s="27"/>
       <c r="B92" s="28"/>
-      <c r="C92" s="131"/>
+      <c r="C92" s="83"/>
       <c r="D92" s="28"/>
-      <c r="E92" s="141"/>
+      <c r="E92" s="93"/>
       <c r="F92" s="28"/>
       <c r="G92" s="28"/>
       <c r="H92" s="29"/>
@@ -4519,9 +4579,9 @@
     <row r="93" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A93" s="27"/>
       <c r="B93" s="28"/>
-      <c r="C93" s="131"/>
+      <c r="C93" s="83"/>
       <c r="D93" s="28"/>
-      <c r="E93" s="141"/>
+      <c r="E93" s="93"/>
       <c r="F93" s="28"/>
       <c r="G93" s="28"/>
       <c r="H93" s="29"/>
@@ -4532,9 +4592,9 @@
     <row r="94" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A94" s="27"/>
       <c r="B94" s="28"/>
-      <c r="C94" s="131"/>
+      <c r="C94" s="83"/>
       <c r="D94" s="28"/>
-      <c r="E94" s="141"/>
+      <c r="E94" s="93"/>
       <c r="F94" s="28"/>
       <c r="G94" s="28"/>
       <c r="H94" s="29"/>
@@ -4545,9 +4605,9 @@
     <row r="95" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A95" s="27"/>
       <c r="B95" s="28"/>
-      <c r="C95" s="131"/>
+      <c r="C95" s="83"/>
       <c r="D95" s="28"/>
-      <c r="E95" s="141"/>
+      <c r="E95" s="93"/>
       <c r="F95" s="28"/>
       <c r="G95" s="28"/>
       <c r="H95" s="29"/>
@@ -4558,9 +4618,9 @@
     <row r="96" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A96" s="27"/>
       <c r="B96" s="28"/>
-      <c r="C96" s="131"/>
+      <c r="C96" s="83"/>
       <c r="D96" s="28"/>
-      <c r="E96" s="141"/>
+      <c r="E96" s="93"/>
       <c r="F96" s="28"/>
       <c r="G96" s="28"/>
       <c r="H96" s="29"/>
@@ -4571,9 +4631,9 @@
     <row r="97" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A97" s="27"/>
       <c r="B97" s="28"/>
-      <c r="C97" s="131"/>
+      <c r="C97" s="83"/>
       <c r="D97" s="28"/>
-      <c r="E97" s="141"/>
+      <c r="E97" s="93"/>
       <c r="F97" s="28"/>
       <c r="G97" s="28"/>
       <c r="H97" s="29"/>
@@ -4584,9 +4644,9 @@
     <row r="98" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A98" s="27"/>
       <c r="B98" s="28"/>
-      <c r="C98" s="131"/>
+      <c r="C98" s="83"/>
       <c r="D98" s="28"/>
-      <c r="E98" s="141"/>
+      <c r="E98" s="93"/>
       <c r="F98" s="28"/>
       <c r="G98" s="28"/>
       <c r="H98" s="29"/>
@@ -4597,9 +4657,9 @@
     <row r="99" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A99" s="27"/>
       <c r="B99" s="28"/>
-      <c r="C99" s="131"/>
+      <c r="C99" s="83"/>
       <c r="D99" s="28"/>
-      <c r="E99" s="141"/>
+      <c r="E99" s="93"/>
       <c r="F99" s="28"/>
       <c r="G99" s="28"/>
       <c r="H99" s="29"/>
@@ -4610,9 +4670,9 @@
     <row r="100" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A100" s="27"/>
       <c r="B100" s="28"/>
-      <c r="C100" s="131"/>
+      <c r="C100" s="83"/>
       <c r="D100" s="28"/>
-      <c r="E100" s="141"/>
+      <c r="E100" s="93"/>
       <c r="F100" s="28"/>
       <c r="G100" s="28"/>
       <c r="H100" s="29"/>
@@ -4623,9 +4683,9 @@
     <row r="101" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A101" s="27"/>
       <c r="B101" s="28"/>
-      <c r="C101" s="131"/>
+      <c r="C101" s="83"/>
       <c r="D101" s="28"/>
-      <c r="E101" s="141"/>
+      <c r="E101" s="93"/>
       <c r="F101" s="28"/>
       <c r="G101" s="28"/>
       <c r="H101" s="29"/>
@@ -4636,9 +4696,9 @@
     <row r="102" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A102" s="27"/>
       <c r="B102" s="28"/>
-      <c r="C102" s="131"/>
+      <c r="C102" s="83"/>
       <c r="D102" s="28"/>
-      <c r="E102" s="141"/>
+      <c r="E102" s="93"/>
       <c r="F102" s="28"/>
       <c r="G102" s="28"/>
       <c r="H102" s="29"/>
@@ -4649,9 +4709,9 @@
     <row r="103" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A103" s="27"/>
       <c r="B103" s="28"/>
-      <c r="C103" s="131"/>
+      <c r="C103" s="83"/>
       <c r="D103" s="28"/>
-      <c r="E103" s="141"/>
+      <c r="E103" s="93"/>
       <c r="F103" s="28"/>
       <c r="G103" s="28"/>
       <c r="H103" s="29"/>
@@ -4662,9 +4722,9 @@
     <row r="104" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A104" s="27"/>
       <c r="B104" s="28"/>
-      <c r="C104" s="131"/>
+      <c r="C104" s="83"/>
       <c r="D104" s="28"/>
-      <c r="E104" s="141"/>
+      <c r="E104" s="93"/>
       <c r="F104" s="28"/>
       <c r="G104" s="28"/>
       <c r="H104" s="29"/>
@@ -4675,9 +4735,9 @@
     <row r="105" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A105" s="27"/>
       <c r="B105" s="28"/>
-      <c r="C105" s="131"/>
+      <c r="C105" s="83"/>
       <c r="D105" s="28"/>
-      <c r="E105" s="141"/>
+      <c r="E105" s="93"/>
       <c r="F105" s="28"/>
       <c r="G105" s="28"/>
       <c r="H105" s="29"/>
@@ -4688,9 +4748,9 @@
     <row r="106" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A106" s="27"/>
       <c r="B106" s="28"/>
-      <c r="C106" s="131"/>
+      <c r="C106" s="83"/>
       <c r="D106" s="28"/>
-      <c r="E106" s="141"/>
+      <c r="E106" s="93"/>
       <c r="F106" s="28"/>
       <c r="G106" s="28"/>
       <c r="H106" s="29"/>
@@ -4701,9 +4761,9 @@
     <row r="107" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A107" s="27"/>
       <c r="B107" s="28"/>
-      <c r="C107" s="131"/>
+      <c r="C107" s="83"/>
       <c r="D107" s="28"/>
-      <c r="E107" s="141"/>
+      <c r="E107" s="93"/>
       <c r="F107" s="28"/>
       <c r="G107" s="28"/>
       <c r="H107" s="29"/>
@@ -4714,9 +4774,9 @@
     <row r="108" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A108" s="27"/>
       <c r="B108" s="28"/>
-      <c r="C108" s="131"/>
+      <c r="C108" s="83"/>
       <c r="D108" s="28"/>
-      <c r="E108" s="141"/>
+      <c r="E108" s="93"/>
       <c r="F108" s="28"/>
       <c r="G108" s="28"/>
       <c r="H108" s="29"/>
@@ -4727,9 +4787,9 @@
     <row r="109" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A109" s="27"/>
       <c r="B109" s="28"/>
-      <c r="C109" s="131"/>
+      <c r="C109" s="83"/>
       <c r="D109" s="28"/>
-      <c r="E109" s="141"/>
+      <c r="E109" s="93"/>
       <c r="F109" s="28"/>
       <c r="G109" s="28"/>
       <c r="H109" s="29"/>
@@ -4740,9 +4800,9 @@
     <row r="110" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A110" s="27"/>
       <c r="B110" s="28"/>
-      <c r="C110" s="131"/>
+      <c r="C110" s="83"/>
       <c r="D110" s="28"/>
-      <c r="E110" s="141"/>
+      <c r="E110" s="93"/>
       <c r="F110" s="28"/>
       <c r="G110" s="28"/>
       <c r="H110" s="29"/>
@@ -4753,9 +4813,9 @@
     <row r="111" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A111" s="27"/>
       <c r="B111" s="28"/>
-      <c r="C111" s="131"/>
+      <c r="C111" s="83"/>
       <c r="D111" s="28"/>
-      <c r="E111" s="141"/>
+      <c r="E111" s="93"/>
       <c r="F111" s="28"/>
       <c r="G111" s="28"/>
       <c r="H111" s="29"/>
@@ -4766,9 +4826,9 @@
     <row r="112" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A112" s="27"/>
       <c r="B112" s="28"/>
-      <c r="C112" s="131"/>
+      <c r="C112" s="83"/>
       <c r="D112" s="28"/>
-      <c r="E112" s="141"/>
+      <c r="E112" s="93"/>
       <c r="F112" s="28"/>
       <c r="G112" s="28"/>
       <c r="H112" s="29"/>
@@ -4779,9 +4839,9 @@
     <row r="113" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A113" s="27"/>
       <c r="B113" s="28"/>
-      <c r="C113" s="131"/>
+      <c r="C113" s="83"/>
       <c r="D113" s="28"/>
-      <c r="E113" s="141"/>
+      <c r="E113" s="93"/>
       <c r="F113" s="28"/>
       <c r="G113" s="28"/>
       <c r="H113" s="29"/>
@@ -4792,9 +4852,9 @@
     <row r="114" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A114" s="27"/>
       <c r="B114" s="28"/>
-      <c r="C114" s="131"/>
+      <c r="C114" s="83"/>
       <c r="D114" s="28"/>
-      <c r="E114" s="141"/>
+      <c r="E114" s="93"/>
       <c r="F114" s="28"/>
       <c r="G114" s="28"/>
       <c r="H114" s="29"/>
@@ -4805,9 +4865,9 @@
     <row r="115" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A115" s="27"/>
       <c r="B115" s="28"/>
-      <c r="C115" s="131"/>
+      <c r="C115" s="83"/>
       <c r="D115" s="28"/>
-      <c r="E115" s="141"/>
+      <c r="E115" s="93"/>
       <c r="F115" s="28"/>
       <c r="G115" s="28"/>
       <c r="H115" s="29"/>
@@ -4818,9 +4878,9 @@
     <row r="116" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A116" s="27"/>
       <c r="B116" s="28"/>
-      <c r="C116" s="131"/>
+      <c r="C116" s="83"/>
       <c r="D116" s="28"/>
-      <c r="E116" s="141"/>
+      <c r="E116" s="93"/>
       <c r="F116" s="28"/>
       <c r="G116" s="28"/>
       <c r="H116" s="29"/>
@@ -4831,9 +4891,9 @@
     <row r="117" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A117" s="27"/>
       <c r="B117" s="28"/>
-      <c r="C117" s="131"/>
+      <c r="C117" s="83"/>
       <c r="D117" s="28"/>
-      <c r="E117" s="141"/>
+      <c r="E117" s="93"/>
       <c r="F117" s="28"/>
       <c r="G117" s="28"/>
       <c r="H117" s="29"/>
@@ -4844,9 +4904,9 @@
     <row r="118" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A118" s="27"/>
       <c r="B118" s="28"/>
-      <c r="C118" s="131"/>
+      <c r="C118" s="83"/>
       <c r="D118" s="28"/>
-      <c r="E118" s="141"/>
+      <c r="E118" s="93"/>
       <c r="F118" s="28"/>
       <c r="G118" s="28"/>
       <c r="H118" s="29"/>
@@ -4857,9 +4917,9 @@
     <row r="119" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A119" s="27"/>
       <c r="B119" s="28"/>
-      <c r="C119" s="131"/>
+      <c r="C119" s="83"/>
       <c r="D119" s="28"/>
-      <c r="E119" s="141"/>
+      <c r="E119" s="93"/>
       <c r="F119" s="28"/>
       <c r="G119" s="28"/>
       <c r="H119" s="29"/>
@@ -4870,9 +4930,9 @@
     <row r="120" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A120" s="27"/>
       <c r="B120" s="28"/>
-      <c r="C120" s="131"/>
+      <c r="C120" s="83"/>
       <c r="D120" s="28"/>
-      <c r="E120" s="141"/>
+      <c r="E120" s="93"/>
       <c r="F120" s="28"/>
       <c r="G120" s="28"/>
       <c r="H120" s="29"/>
@@ -4883,9 +4943,9 @@
     <row r="121" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A121" s="27"/>
       <c r="B121" s="28"/>
-      <c r="C121" s="131"/>
+      <c r="C121" s="83"/>
       <c r="D121" s="28"/>
-      <c r="E121" s="141"/>
+      <c r="E121" s="93"/>
       <c r="F121" s="28"/>
       <c r="G121" s="28"/>
       <c r="H121" s="29"/>
@@ -4896,9 +4956,9 @@
     <row r="122" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A122" s="27"/>
       <c r="B122" s="28"/>
-      <c r="C122" s="131"/>
+      <c r="C122" s="83"/>
       <c r="D122" s="28"/>
-      <c r="E122" s="141"/>
+      <c r="E122" s="93"/>
       <c r="F122" s="28"/>
       <c r="G122" s="28"/>
       <c r="H122" s="29"/>
@@ -4909,9 +4969,9 @@
     <row r="123" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A123" s="27"/>
       <c r="B123" s="28"/>
-      <c r="C123" s="131"/>
+      <c r="C123" s="83"/>
       <c r="D123" s="28"/>
-      <c r="E123" s="141"/>
+      <c r="E123" s="93"/>
       <c r="F123" s="28"/>
       <c r="G123" s="28"/>
       <c r="H123" s="29"/>
@@ -4922,9 +4982,9 @@
     <row r="124" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A124" s="27"/>
       <c r="B124" s="28"/>
-      <c r="C124" s="131"/>
+      <c r="C124" s="83"/>
       <c r="D124" s="28"/>
-      <c r="E124" s="141"/>
+      <c r="E124" s="93"/>
       <c r="F124" s="28"/>
       <c r="G124" s="28"/>
       <c r="H124" s="29"/>
@@ -4935,9 +4995,9 @@
     <row r="125" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A125" s="27"/>
       <c r="B125" s="28"/>
-      <c r="C125" s="131"/>
+      <c r="C125" s="83"/>
       <c r="D125" s="28"/>
-      <c r="E125" s="141"/>
+      <c r="E125" s="93"/>
       <c r="F125" s="28"/>
       <c r="G125" s="28"/>
       <c r="H125" s="29"/>
@@ -4948,9 +5008,9 @@
     <row r="126" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A126" s="27"/>
       <c r="B126" s="28"/>
-      <c r="C126" s="131"/>
+      <c r="C126" s="83"/>
       <c r="D126" s="28"/>
-      <c r="E126" s="141"/>
+      <c r="E126" s="93"/>
       <c r="F126" s="28"/>
       <c r="G126" s="28"/>
       <c r="H126" s="29"/>
@@ -4961,9 +5021,9 @@
     <row r="127" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A127" s="27"/>
       <c r="B127" s="28"/>
-      <c r="C127" s="131"/>
+      <c r="C127" s="83"/>
       <c r="D127" s="28"/>
-      <c r="E127" s="141"/>
+      <c r="E127" s="93"/>
       <c r="F127" s="28"/>
       <c r="G127" s="28"/>
       <c r="H127" s="29"/>
@@ -4974,9 +5034,9 @@
     <row r="128" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A128" s="27"/>
       <c r="B128" s="28"/>
-      <c r="C128" s="131"/>
+      <c r="C128" s="83"/>
       <c r="D128" s="28"/>
-      <c r="E128" s="141"/>
+      <c r="E128" s="93"/>
       <c r="F128" s="28"/>
       <c r="G128" s="28"/>
       <c r="H128" s="29"/>
@@ -4987,9 +5047,9 @@
     <row r="129" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A129" s="27"/>
       <c r="B129" s="28"/>
-      <c r="C129" s="131"/>
+      <c r="C129" s="83"/>
       <c r="D129" s="28"/>
-      <c r="E129" s="141"/>
+      <c r="E129" s="93"/>
       <c r="F129" s="28"/>
       <c r="G129" s="28"/>
       <c r="H129" s="29"/>
@@ -5000,9 +5060,9 @@
     <row r="130" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A130" s="27"/>
       <c r="B130" s="28"/>
-      <c r="C130" s="131"/>
+      <c r="C130" s="83"/>
       <c r="D130" s="28"/>
-      <c r="E130" s="141"/>
+      <c r="E130" s="93"/>
       <c r="F130" s="28"/>
       <c r="G130" s="28"/>
       <c r="H130" s="29"/>
@@ -5013,9 +5073,9 @@
     <row r="131" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A131" s="27"/>
       <c r="B131" s="28"/>
-      <c r="C131" s="131"/>
+      <c r="C131" s="83"/>
       <c r="D131" s="28"/>
-      <c r="E131" s="141"/>
+      <c r="E131" s="93"/>
       <c r="F131" s="28"/>
       <c r="G131" s="28"/>
       <c r="H131" s="29"/>
@@ -5026,9 +5086,9 @@
     <row r="132" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A132" s="27"/>
       <c r="B132" s="28"/>
-      <c r="C132" s="131"/>
+      <c r="C132" s="83"/>
       <c r="D132" s="28"/>
-      <c r="E132" s="141"/>
+      <c r="E132" s="93"/>
       <c r="F132" s="28"/>
       <c r="G132" s="28"/>
       <c r="H132" s="29"/>
@@ -5039,9 +5099,9 @@
     <row r="133" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A133" s="27"/>
       <c r="B133" s="28"/>
-      <c r="C133" s="131"/>
+      <c r="C133" s="83"/>
       <c r="D133" s="28"/>
-      <c r="E133" s="141"/>
+      <c r="E133" s="93"/>
       <c r="F133" s="28"/>
       <c r="G133" s="28"/>
       <c r="H133" s="29"/>
@@ -5052,9 +5112,9 @@
     <row r="134" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A134" s="27"/>
       <c r="B134" s="28"/>
-      <c r="C134" s="131"/>
+      <c r="C134" s="83"/>
       <c r="D134" s="28"/>
-      <c r="E134" s="141"/>
+      <c r="E134" s="93"/>
       <c r="F134" s="28"/>
       <c r="G134" s="28"/>
       <c r="H134" s="29"/>
@@ -5065,9 +5125,9 @@
     <row r="135" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A135" s="27"/>
       <c r="B135" s="28"/>
-      <c r="C135" s="131"/>
+      <c r="C135" s="83"/>
       <c r="D135" s="28"/>
-      <c r="E135" s="141"/>
+      <c r="E135" s="93"/>
       <c r="F135" s="28"/>
       <c r="G135" s="28"/>
       <c r="H135" s="29"/>
@@ -5078,9 +5138,9 @@
     <row r="136" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A136" s="27"/>
       <c r="B136" s="28"/>
-      <c r="C136" s="131"/>
+      <c r="C136" s="83"/>
       <c r="D136" s="28"/>
-      <c r="E136" s="141"/>
+      <c r="E136" s="93"/>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
       <c r="H136" s="29"/>
@@ -5091,9 +5151,9 @@
     <row r="137" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A137" s="27"/>
       <c r="B137" s="28"/>
-      <c r="C137" s="131"/>
+      <c r="C137" s="83"/>
       <c r="D137" s="28"/>
-      <c r="E137" s="141"/>
+      <c r="E137" s="93"/>
       <c r="F137" s="28"/>
       <c r="G137" s="28"/>
       <c r="H137" s="29"/>
@@ -5104,9 +5164,9 @@
     <row r="138" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A138" s="27"/>
       <c r="B138" s="28"/>
-      <c r="C138" s="131"/>
+      <c r="C138" s="83"/>
       <c r="D138" s="28"/>
-      <c r="E138" s="141"/>
+      <c r="E138" s="93"/>
       <c r="F138" s="28"/>
       <c r="G138" s="28"/>
       <c r="H138" s="29"/>
@@ -5117,9 +5177,9 @@
     <row r="139" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A139" s="27"/>
       <c r="B139" s="28"/>
-      <c r="C139" s="131"/>
+      <c r="C139" s="83"/>
       <c r="D139" s="28"/>
-      <c r="E139" s="141"/>
+      <c r="E139" s="93"/>
       <c r="F139" s="28"/>
       <c r="G139" s="28"/>
       <c r="H139" s="29"/>
@@ -5130,9 +5190,9 @@
     <row r="140" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A140" s="27"/>
       <c r="B140" s="28"/>
-      <c r="C140" s="131"/>
+      <c r="C140" s="83"/>
       <c r="D140" s="28"/>
-      <c r="E140" s="141"/>
+      <c r="E140" s="93"/>
       <c r="F140" s="28"/>
       <c r="G140" s="28"/>
       <c r="H140" s="29"/>
@@ -5143,9 +5203,9 @@
     <row r="141" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A141" s="27"/>
       <c r="B141" s="28"/>
-      <c r="C141" s="131"/>
+      <c r="C141" s="83"/>
       <c r="D141" s="28"/>
-      <c r="E141" s="141"/>
+      <c r="E141" s="93"/>
       <c r="F141" s="28"/>
       <c r="G141" s="28"/>
       <c r="H141" s="29"/>
@@ -5156,9 +5216,9 @@
     <row r="142" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A142" s="27"/>
       <c r="B142" s="28"/>
-      <c r="C142" s="131"/>
+      <c r="C142" s="83"/>
       <c r="D142" s="28"/>
-      <c r="E142" s="141"/>
+      <c r="E142" s="93"/>
       <c r="F142" s="28"/>
       <c r="G142" s="28"/>
       <c r="H142" s="29"/>
@@ -5169,9 +5229,9 @@
     <row r="143" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A143" s="27"/>
       <c r="B143" s="28"/>
-      <c r="C143" s="131"/>
+      <c r="C143" s="83"/>
       <c r="D143" s="28"/>
-      <c r="E143" s="141"/>
+      <c r="E143" s="93"/>
       <c r="F143" s="28"/>
       <c r="G143" s="28"/>
       <c r="H143" s="29"/>
@@ -5182,9 +5242,9 @@
     <row r="144" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A144" s="27"/>
       <c r="B144" s="28"/>
-      <c r="C144" s="131"/>
+      <c r="C144" s="83"/>
       <c r="D144" s="28"/>
-      <c r="E144" s="141"/>
+      <c r="E144" s="93"/>
       <c r="F144" s="28"/>
       <c r="G144" s="28"/>
       <c r="H144" s="29"/>
@@ -5195,9 +5255,9 @@
     <row r="145" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A145" s="27"/>
       <c r="B145" s="28"/>
-      <c r="C145" s="131"/>
+      <c r="C145" s="83"/>
       <c r="D145" s="28"/>
-      <c r="E145" s="141"/>
+      <c r="E145" s="93"/>
       <c r="F145" s="28"/>
       <c r="G145" s="28"/>
       <c r="H145" s="29"/>
@@ -5208,9 +5268,9 @@
     <row r="146" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A146" s="27"/>
       <c r="B146" s="28"/>
-      <c r="C146" s="131"/>
+      <c r="C146" s="83"/>
       <c r="D146" s="28"/>
-      <c r="E146" s="141"/>
+      <c r="E146" s="93"/>
       <c r="F146" s="28"/>
       <c r="G146" s="28"/>
       <c r="H146" s="29"/>
@@ -5221,9 +5281,9 @@
     <row r="147" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A147" s="27"/>
       <c r="B147" s="28"/>
-      <c r="C147" s="131"/>
+      <c r="C147" s="83"/>
       <c r="D147" s="28"/>
-      <c r="E147" s="141"/>
+      <c r="E147" s="93"/>
       <c r="F147" s="28"/>
       <c r="G147" s="28"/>
       <c r="H147" s="29"/>
@@ -5234,9 +5294,9 @@
     <row r="148" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A148" s="27"/>
       <c r="B148" s="28"/>
-      <c r="C148" s="131"/>
+      <c r="C148" s="83"/>
       <c r="D148" s="28"/>
-      <c r="E148" s="141"/>
+      <c r="E148" s="93"/>
       <c r="F148" s="28"/>
       <c r="G148" s="28"/>
       <c r="H148" s="29"/>
@@ -5247,9 +5307,9 @@
     <row r="149" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A149" s="27"/>
       <c r="B149" s="28"/>
-      <c r="C149" s="131"/>
+      <c r="C149" s="83"/>
       <c r="D149" s="28"/>
-      <c r="E149" s="141"/>
+      <c r="E149" s="93"/>
       <c r="F149" s="28"/>
       <c r="G149" s="28"/>
       <c r="H149" s="29"/>
@@ -5260,9 +5320,9 @@
     <row r="150" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A150" s="27"/>
       <c r="B150" s="28"/>
-      <c r="C150" s="131"/>
+      <c r="C150" s="83"/>
       <c r="D150" s="28"/>
-      <c r="E150" s="141"/>
+      <c r="E150" s="93"/>
       <c r="F150" s="28"/>
       <c r="G150" s="28"/>
       <c r="H150" s="29"/>
@@ -5273,9 +5333,9 @@
     <row r="151" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A151" s="27"/>
       <c r="B151" s="28"/>
-      <c r="C151" s="131"/>
+      <c r="C151" s="83"/>
       <c r="D151" s="28"/>
-      <c r="E151" s="141"/>
+      <c r="E151" s="93"/>
       <c r="F151" s="28"/>
       <c r="G151" s="28"/>
       <c r="H151" s="29"/>
@@ -5286,9 +5346,9 @@
     <row r="152" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A152" s="27"/>
       <c r="B152" s="28"/>
-      <c r="C152" s="131"/>
+      <c r="C152" s="83"/>
       <c r="D152" s="28"/>
-      <c r="E152" s="141"/>
+      <c r="E152" s="93"/>
       <c r="F152" s="28"/>
       <c r="G152" s="28"/>
       <c r="H152" s="29"/>
@@ -5299,9 +5359,9 @@
     <row r="153" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A153" s="27"/>
       <c r="B153" s="28"/>
-      <c r="C153" s="131"/>
+      <c r="C153" s="83"/>
       <c r="D153" s="28"/>
-      <c r="E153" s="141"/>
+      <c r="E153" s="93"/>
       <c r="F153" s="28"/>
       <c r="G153" s="28"/>
       <c r="H153" s="29"/>
@@ -5312,9 +5372,9 @@
     <row r="154" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A154" s="27"/>
       <c r="B154" s="28"/>
-      <c r="C154" s="131"/>
+      <c r="C154" s="83"/>
       <c r="D154" s="28"/>
-      <c r="E154" s="141"/>
+      <c r="E154" s="93"/>
       <c r="F154" s="28"/>
       <c r="G154" s="28"/>
       <c r="H154" s="29"/>
@@ -5325,9 +5385,9 @@
     <row r="155" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A155" s="27"/>
       <c r="B155" s="28"/>
-      <c r="C155" s="131"/>
+      <c r="C155" s="83"/>
       <c r="D155" s="28"/>
-      <c r="E155" s="141"/>
+      <c r="E155" s="93"/>
       <c r="F155" s="28"/>
       <c r="G155" s="28"/>
       <c r="H155" s="29"/>
@@ -5338,9 +5398,9 @@
     <row r="156" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A156" s="27"/>
       <c r="B156" s="28"/>
-      <c r="C156" s="131"/>
+      <c r="C156" s="83"/>
       <c r="D156" s="28"/>
-      <c r="E156" s="141"/>
+      <c r="E156" s="93"/>
       <c r="F156" s="28"/>
       <c r="G156" s="28"/>
       <c r="H156" s="29"/>
@@ -5351,9 +5411,9 @@
     <row r="157" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A157" s="27"/>
       <c r="B157" s="28"/>
-      <c r="C157" s="131"/>
+      <c r="C157" s="83"/>
       <c r="D157" s="28"/>
-      <c r="E157" s="141"/>
+      <c r="E157" s="93"/>
       <c r="F157" s="28"/>
       <c r="G157" s="28"/>
       <c r="H157" s="29"/>
@@ -5364,9 +5424,9 @@
     <row r="158" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A158" s="27"/>
       <c r="B158" s="28"/>
-      <c r="C158" s="131"/>
+      <c r="C158" s="83"/>
       <c r="D158" s="28"/>
-      <c r="E158" s="141"/>
+      <c r="E158" s="93"/>
       <c r="F158" s="28"/>
       <c r="G158" s="28"/>
       <c r="H158" s="29"/>
@@ -5377,9 +5437,9 @@
     <row r="159" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A159" s="27"/>
       <c r="B159" s="28"/>
-      <c r="C159" s="131"/>
+      <c r="C159" s="83"/>
       <c r="D159" s="28"/>
-      <c r="E159" s="141"/>
+      <c r="E159" s="93"/>
       <c r="F159" s="28"/>
       <c r="G159" s="28"/>
       <c r="H159" s="29"/>
@@ -5390,9 +5450,9 @@
     <row r="160" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A160" s="27"/>
       <c r="B160" s="28"/>
-      <c r="C160" s="131"/>
+      <c r="C160" s="83"/>
       <c r="D160" s="28"/>
-      <c r="E160" s="141"/>
+      <c r="E160" s="93"/>
       <c r="F160" s="28"/>
       <c r="G160" s="28"/>
       <c r="H160" s="29"/>
@@ -5403,9 +5463,9 @@
     <row r="161" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A161" s="27"/>
       <c r="B161" s="28"/>
-      <c r="C161" s="131"/>
+      <c r="C161" s="83"/>
       <c r="D161" s="28"/>
-      <c r="E161" s="141"/>
+      <c r="E161" s="93"/>
       <c r="F161" s="28"/>
       <c r="G161" s="28"/>
       <c r="H161" s="29"/>
@@ -5416,9 +5476,9 @@
     <row r="162" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A162" s="27"/>
       <c r="B162" s="28"/>
-      <c r="C162" s="131"/>
+      <c r="C162" s="83"/>
       <c r="D162" s="28"/>
-      <c r="E162" s="141"/>
+      <c r="E162" s="93"/>
       <c r="F162" s="28"/>
       <c r="G162" s="28"/>
       <c r="H162" s="29"/>
@@ -5429,9 +5489,9 @@
     <row r="163" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A163" s="27"/>
       <c r="B163" s="28"/>
-      <c r="C163" s="131"/>
+      <c r="C163" s="83"/>
       <c r="D163" s="28"/>
-      <c r="E163" s="141"/>
+      <c r="E163" s="93"/>
       <c r="F163" s="28"/>
       <c r="G163" s="28"/>
       <c r="H163" s="29"/>
@@ -5442,9 +5502,9 @@
     <row r="164" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A164" s="27"/>
       <c r="B164" s="28"/>
-      <c r="C164" s="131"/>
+      <c r="C164" s="83"/>
       <c r="D164" s="28"/>
-      <c r="E164" s="141"/>
+      <c r="E164" s="93"/>
       <c r="F164" s="28"/>
       <c r="G164" s="28"/>
       <c r="H164" s="29"/>
@@ -5455,9 +5515,9 @@
     <row r="165" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A165" s="27"/>
       <c r="B165" s="28"/>
-      <c r="C165" s="131"/>
+      <c r="C165" s="83"/>
       <c r="D165" s="28"/>
-      <c r="E165" s="141"/>
+      <c r="E165" s="93"/>
       <c r="F165" s="28"/>
       <c r="G165" s="28"/>
       <c r="H165" s="29"/>
@@ -5468,9 +5528,9 @@
     <row r="166" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A166" s="27"/>
       <c r="B166" s="28"/>
-      <c r="C166" s="131"/>
+      <c r="C166" s="83"/>
       <c r="D166" s="28"/>
-      <c r="E166" s="141"/>
+      <c r="E166" s="93"/>
       <c r="F166" s="28"/>
       <c r="G166" s="28"/>
       <c r="H166" s="29"/>
@@ -5481,9 +5541,9 @@
     <row r="167" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A167" s="27"/>
       <c r="B167" s="28"/>
-      <c r="C167" s="131"/>
+      <c r="C167" s="83"/>
       <c r="D167" s="28"/>
-      <c r="E167" s="141"/>
+      <c r="E167" s="93"/>
       <c r="F167" s="28"/>
       <c r="G167" s="28"/>
       <c r="H167" s="29"/>
@@ -5494,9 +5554,9 @@
     <row r="168" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A168" s="27"/>
       <c r="B168" s="28"/>
-      <c r="C168" s="131"/>
+      <c r="C168" s="83"/>
       <c r="D168" s="28"/>
-      <c r="E168" s="141"/>
+      <c r="E168" s="93"/>
       <c r="F168" s="28"/>
       <c r="G168" s="28"/>
       <c r="H168" s="29"/>
@@ -5507,9 +5567,9 @@
     <row r="169" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A169" s="27"/>
       <c r="B169" s="28"/>
-      <c r="C169" s="131"/>
+      <c r="C169" s="83"/>
       <c r="D169" s="28"/>
-      <c r="E169" s="141"/>
+      <c r="E169" s="93"/>
       <c r="F169" s="28"/>
       <c r="G169" s="28"/>
       <c r="H169" s="29"/>
@@ -5520,9 +5580,9 @@
     <row r="170" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A170" s="27"/>
       <c r="B170" s="28"/>
-      <c r="C170" s="131"/>
+      <c r="C170" s="83"/>
       <c r="D170" s="28"/>
-      <c r="E170" s="141"/>
+      <c r="E170" s="93"/>
       <c r="F170" s="28"/>
       <c r="G170" s="28"/>
       <c r="H170" s="29"/>
@@ -5533,9 +5593,9 @@
     <row r="171" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A171" s="27"/>
       <c r="B171" s="28"/>
-      <c r="C171" s="131"/>
+      <c r="C171" s="83"/>
       <c r="D171" s="28"/>
-      <c r="E171" s="141"/>
+      <c r="E171" s="93"/>
       <c r="F171" s="28"/>
       <c r="G171" s="28"/>
       <c r="H171" s="29"/>
@@ -5546,9 +5606,9 @@
     <row r="172" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A172" s="27"/>
       <c r="B172" s="28"/>
-      <c r="C172" s="131"/>
+      <c r="C172" s="83"/>
       <c r="D172" s="28"/>
-      <c r="E172" s="141"/>
+      <c r="E172" s="93"/>
       <c r="F172" s="28"/>
       <c r="G172" s="28"/>
       <c r="H172" s="29"/>
@@ -5559,9 +5619,9 @@
     <row r="173" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A173" s="27"/>
       <c r="B173" s="28"/>
-      <c r="C173" s="131"/>
+      <c r="C173" s="83"/>
       <c r="D173" s="28"/>
-      <c r="E173" s="141"/>
+      <c r="E173" s="93"/>
       <c r="F173" s="28"/>
       <c r="G173" s="28"/>
       <c r="H173" s="29"/>
@@ -5572,9 +5632,9 @@
     <row r="174" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A174" s="27"/>
       <c r="B174" s="28"/>
-      <c r="C174" s="131"/>
+      <c r="C174" s="83"/>
       <c r="D174" s="28"/>
-      <c r="E174" s="141"/>
+      <c r="E174" s="93"/>
       <c r="F174" s="28"/>
       <c r="G174" s="28"/>
       <c r="H174" s="29"/>
@@ -5585,9 +5645,9 @@
     <row r="175" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A175" s="27"/>
       <c r="B175" s="28"/>
-      <c r="C175" s="131"/>
+      <c r="C175" s="83"/>
       <c r="D175" s="28"/>
-      <c r="E175" s="141"/>
+      <c r="E175" s="93"/>
       <c r="F175" s="28"/>
       <c r="G175" s="28"/>
       <c r="H175" s="29"/>
@@ -5598,9 +5658,9 @@
     <row r="176" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A176" s="27"/>
       <c r="B176" s="28"/>
-      <c r="C176" s="131"/>
+      <c r="C176" s="83"/>
       <c r="D176" s="28"/>
-      <c r="E176" s="141"/>
+      <c r="E176" s="93"/>
       <c r="F176" s="28"/>
       <c r="G176" s="28"/>
       <c r="H176" s="29"/>
@@ -5611,9 +5671,9 @@
     <row r="177" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A177" s="27"/>
       <c r="B177" s="28"/>
-      <c r="C177" s="131"/>
+      <c r="C177" s="83"/>
       <c r="D177" s="28"/>
-      <c r="E177" s="141"/>
+      <c r="E177" s="93"/>
       <c r="F177" s="28"/>
       <c r="G177" s="28"/>
       <c r="H177" s="29"/>
@@ -5624,9 +5684,9 @@
     <row r="178" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A178" s="27"/>
       <c r="B178" s="28"/>
-      <c r="C178" s="131"/>
+      <c r="C178" s="83"/>
       <c r="D178" s="28"/>
-      <c r="E178" s="141"/>
+      <c r="E178" s="93"/>
       <c r="F178" s="28"/>
       <c r="G178" s="28"/>
       <c r="H178" s="29"/>
@@ -5637,9 +5697,9 @@
     <row r="179" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A179" s="27"/>
       <c r="B179" s="28"/>
-      <c r="C179" s="131"/>
+      <c r="C179" s="83"/>
       <c r="D179" s="28"/>
-      <c r="E179" s="141"/>
+      <c r="E179" s="93"/>
       <c r="F179" s="28"/>
       <c r="G179" s="28"/>
       <c r="H179" s="29"/>
@@ -5650,9 +5710,9 @@
     <row r="180" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A180" s="27"/>
       <c r="B180" s="28"/>
-      <c r="C180" s="131"/>
+      <c r="C180" s="83"/>
       <c r="D180" s="28"/>
-      <c r="E180" s="141"/>
+      <c r="E180" s="93"/>
       <c r="F180" s="28"/>
       <c r="G180" s="28"/>
       <c r="H180" s="29"/>
@@ -5663,9 +5723,9 @@
     <row r="181" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A181" s="27"/>
       <c r="B181" s="28"/>
-      <c r="C181" s="131"/>
+      <c r="C181" s="83"/>
       <c r="D181" s="28"/>
-      <c r="E181" s="141"/>
+      <c r="E181" s="93"/>
       <c r="F181" s="28"/>
       <c r="G181" s="28"/>
       <c r="H181" s="29"/>
@@ -5676,9 +5736,9 @@
     <row r="182" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A182" s="27"/>
       <c r="B182" s="28"/>
-      <c r="C182" s="131"/>
+      <c r="C182" s="83"/>
       <c r="D182" s="28"/>
-      <c r="E182" s="141"/>
+      <c r="E182" s="93"/>
       <c r="F182" s="28"/>
       <c r="G182" s="28"/>
       <c r="H182" s="29"/>
@@ -5689,9 +5749,9 @@
     <row r="183" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A183" s="27"/>
       <c r="B183" s="28"/>
-      <c r="C183" s="131"/>
+      <c r="C183" s="83"/>
       <c r="D183" s="28"/>
-      <c r="E183" s="141"/>
+      <c r="E183" s="93"/>
       <c r="F183" s="28"/>
       <c r="G183" s="28"/>
       <c r="H183" s="29"/>
@@ -5702,9 +5762,9 @@
     <row r="184" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A184" s="27"/>
       <c r="B184" s="28"/>
-      <c r="C184" s="131"/>
+      <c r="C184" s="83"/>
       <c r="D184" s="28"/>
-      <c r="E184" s="141"/>
+      <c r="E184" s="93"/>
       <c r="F184" s="28"/>
       <c r="G184" s="28"/>
       <c r="H184" s="29"/>
@@ -5715,9 +5775,9 @@
     <row r="185" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A185" s="27"/>
       <c r="B185" s="28"/>
-      <c r="C185" s="131"/>
+      <c r="C185" s="83"/>
       <c r="D185" s="28"/>
-      <c r="E185" s="141"/>
+      <c r="E185" s="93"/>
       <c r="F185" s="28"/>
       <c r="G185" s="28"/>
       <c r="H185" s="29"/>
@@ -5728,9 +5788,9 @@
     <row r="186" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A186" s="27"/>
       <c r="B186" s="28"/>
-      <c r="C186" s="131"/>
+      <c r="C186" s="83"/>
       <c r="D186" s="28"/>
-      <c r="E186" s="141"/>
+      <c r="E186" s="93"/>
       <c r="F186" s="28"/>
       <c r="G186" s="28"/>
       <c r="H186" s="29"/>
@@ -5741,9 +5801,9 @@
     <row r="187" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A187" s="27"/>
       <c r="B187" s="28"/>
-      <c r="C187" s="131"/>
+      <c r="C187" s="83"/>
       <c r="D187" s="28"/>
-      <c r="E187" s="141"/>
+      <c r="E187" s="93"/>
       <c r="F187" s="28"/>
       <c r="G187" s="28"/>
       <c r="H187" s="29"/>
@@ -5754,9 +5814,9 @@
     <row r="188" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A188" s="27"/>
       <c r="B188" s="28"/>
-      <c r="C188" s="131"/>
+      <c r="C188" s="83"/>
       <c r="D188" s="28"/>
-      <c r="E188" s="141"/>
+      <c r="E188" s="93"/>
       <c r="F188" s="28"/>
       <c r="G188" s="28"/>
       <c r="H188" s="29"/>
@@ -5767,9 +5827,9 @@
     <row r="189" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A189" s="27"/>
       <c r="B189" s="28"/>
-      <c r="C189" s="131"/>
+      <c r="C189" s="83"/>
       <c r="D189" s="28"/>
-      <c r="E189" s="141"/>
+      <c r="E189" s="93"/>
       <c r="F189" s="28"/>
       <c r="G189" s="28"/>
       <c r="H189" s="29"/>
@@ -5780,9 +5840,9 @@
     <row r="190" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A190" s="27"/>
       <c r="B190" s="28"/>
-      <c r="C190" s="131"/>
+      <c r="C190" s="83"/>
       <c r="D190" s="28"/>
-      <c r="E190" s="141"/>
+      <c r="E190" s="93"/>
       <c r="F190" s="28"/>
       <c r="G190" s="28"/>
       <c r="H190" s="29"/>
@@ -5793,9 +5853,9 @@
     <row r="191" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A191" s="27"/>
       <c r="B191" s="28"/>
-      <c r="C191" s="131"/>
+      <c r="C191" s="83"/>
       <c r="D191" s="28"/>
-      <c r="E191" s="141"/>
+      <c r="E191" s="93"/>
       <c r="F191" s="28"/>
       <c r="G191" s="28"/>
       <c r="H191" s="29"/>
@@ -5806,9 +5866,9 @@
     <row r="192" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A192" s="27"/>
       <c r="B192" s="28"/>
-      <c r="C192" s="131"/>
+      <c r="C192" s="83"/>
       <c r="D192" s="28"/>
-      <c r="E192" s="141"/>
+      <c r="E192" s="93"/>
       <c r="F192" s="28"/>
       <c r="G192" s="28"/>
       <c r="H192" s="29"/>
@@ -5819,9 +5879,9 @@
     <row r="193" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A193" s="27"/>
       <c r="B193" s="28"/>
-      <c r="C193" s="131"/>
+      <c r="C193" s="83"/>
       <c r="D193" s="28"/>
-      <c r="E193" s="141"/>
+      <c r="E193" s="93"/>
       <c r="F193" s="28"/>
       <c r="G193" s="28"/>
       <c r="H193" s="29"/>
@@ -5832,9 +5892,9 @@
     <row r="194" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A194" s="27"/>
       <c r="B194" s="28"/>
-      <c r="C194" s="131"/>
+      <c r="C194" s="83"/>
       <c r="D194" s="28"/>
-      <c r="E194" s="141"/>
+      <c r="E194" s="93"/>
       <c r="F194" s="28"/>
       <c r="G194" s="28"/>
       <c r="H194" s="29"/>
@@ -5845,9 +5905,9 @@
     <row r="195" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A195" s="27"/>
       <c r="B195" s="28"/>
-      <c r="C195" s="131"/>
+      <c r="C195" s="83"/>
       <c r="D195" s="28"/>
-      <c r="E195" s="141"/>
+      <c r="E195" s="93"/>
       <c r="F195" s="28"/>
       <c r="G195" s="28"/>
       <c r="H195" s="29"/>
@@ -5858,9 +5918,9 @@
     <row r="196" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A196" s="27"/>
       <c r="B196" s="28"/>
-      <c r="C196" s="131"/>
+      <c r="C196" s="83"/>
       <c r="D196" s="28"/>
-      <c r="E196" s="141"/>
+      <c r="E196" s="93"/>
       <c r="F196" s="28"/>
       <c r="G196" s="28"/>
       <c r="H196" s="29"/>
@@ -5871,9 +5931,9 @@
     <row r="197" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A197" s="27"/>
       <c r="B197" s="28"/>
-      <c r="C197" s="131"/>
+      <c r="C197" s="83"/>
       <c r="D197" s="28"/>
-      <c r="E197" s="141"/>
+      <c r="E197" s="93"/>
       <c r="F197" s="28"/>
       <c r="G197" s="28"/>
       <c r="H197" s="29"/>
@@ -5884,9 +5944,9 @@
     <row r="198" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A198" s="27"/>
       <c r="B198" s="28"/>
-      <c r="C198" s="131"/>
+      <c r="C198" s="83"/>
       <c r="D198" s="28"/>
-      <c r="E198" s="141"/>
+      <c r="E198" s="93"/>
       <c r="F198" s="28"/>
       <c r="G198" s="28"/>
       <c r="H198" s="29"/>
@@ -5897,9 +5957,9 @@
     <row r="199" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A199" s="27"/>
       <c r="B199" s="28"/>
-      <c r="C199" s="131"/>
+      <c r="C199" s="83"/>
       <c r="D199" s="28"/>
-      <c r="E199" s="141"/>
+      <c r="E199" s="93"/>
       <c r="F199" s="28"/>
       <c r="G199" s="28"/>
       <c r="H199" s="29"/>
@@ -5910,9 +5970,9 @@
     <row r="200" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A200" s="27"/>
       <c r="B200" s="28"/>
-      <c r="C200" s="131"/>
+      <c r="C200" s="83"/>
       <c r="D200" s="28"/>
-      <c r="E200" s="141"/>
+      <c r="E200" s="93"/>
       <c r="F200" s="28"/>
       <c r="G200" s="28"/>
       <c r="H200" s="29"/>
@@ -5923,9 +5983,9 @@
     <row r="201" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A201" s="27"/>
       <c r="B201" s="28"/>
-      <c r="C201" s="131"/>
+      <c r="C201" s="83"/>
       <c r="D201" s="28"/>
-      <c r="E201" s="141"/>
+      <c r="E201" s="93"/>
       <c r="F201" s="28"/>
       <c r="G201" s="28"/>
       <c r="H201" s="29"/>
@@ -5936,9 +5996,9 @@
     <row r="202" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A202" s="27"/>
       <c r="B202" s="28"/>
-      <c r="C202" s="131"/>
+      <c r="C202" s="83"/>
       <c r="D202" s="28"/>
-      <c r="E202" s="141"/>
+      <c r="E202" s="93"/>
       <c r="F202" s="28"/>
       <c r="G202" s="28"/>
       <c r="H202" s="29"/>
@@ -5949,9 +6009,9 @@
     <row r="203" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A203" s="27"/>
       <c r="B203" s="28"/>
-      <c r="C203" s="131"/>
+      <c r="C203" s="83"/>
       <c r="D203" s="28"/>
-      <c r="E203" s="141"/>
+      <c r="E203" s="93"/>
       <c r="F203" s="28"/>
       <c r="G203" s="28"/>
       <c r="H203" s="29"/>
@@ -5962,9 +6022,9 @@
     <row r="204" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A204" s="27"/>
       <c r="B204" s="28"/>
-      <c r="C204" s="131"/>
+      <c r="C204" s="83"/>
       <c r="D204" s="28"/>
-      <c r="E204" s="141"/>
+      <c r="E204" s="93"/>
       <c r="F204" s="28"/>
       <c r="G204" s="28"/>
       <c r="H204" s="29"/>
@@ -5975,9 +6035,9 @@
     <row r="205" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A205" s="27"/>
       <c r="B205" s="28"/>
-      <c r="C205" s="131"/>
+      <c r="C205" s="83"/>
       <c r="D205" s="28"/>
-      <c r="E205" s="141"/>
+      <c r="E205" s="93"/>
       <c r="F205" s="28"/>
       <c r="G205" s="28"/>
       <c r="H205" s="29"/>
@@ -5988,9 +6048,9 @@
     <row r="206" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A206" s="27"/>
       <c r="B206" s="28"/>
-      <c r="C206" s="131"/>
+      <c r="C206" s="83"/>
       <c r="D206" s="28"/>
-      <c r="E206" s="141"/>
+      <c r="E206" s="93"/>
       <c r="F206" s="28"/>
       <c r="G206" s="28"/>
       <c r="H206" s="29"/>
@@ -6001,9 +6061,9 @@
     <row r="207" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A207" s="27"/>
       <c r="B207" s="28"/>
-      <c r="C207" s="131"/>
+      <c r="C207" s="83"/>
       <c r="D207" s="28"/>
-      <c r="E207" s="141"/>
+      <c r="E207" s="93"/>
       <c r="F207" s="28"/>
       <c r="G207" s="28"/>
       <c r="H207" s="29"/>
@@ -6014,9 +6074,9 @@
     <row r="208" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A208" s="27"/>
       <c r="B208" s="28"/>
-      <c r="C208" s="131"/>
+      <c r="C208" s="83"/>
       <c r="D208" s="28"/>
-      <c r="E208" s="141"/>
+      <c r="E208" s="93"/>
       <c r="F208" s="28"/>
       <c r="G208" s="28"/>
       <c r="H208" s="29"/>
@@ -6027,9 +6087,9 @@
     <row r="209" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A209" s="27"/>
       <c r="B209" s="28"/>
-      <c r="C209" s="131"/>
+      <c r="C209" s="83"/>
       <c r="D209" s="28"/>
-      <c r="E209" s="141"/>
+      <c r="E209" s="93"/>
       <c r="F209" s="28"/>
       <c r="G209" s="28"/>
       <c r="H209" s="29"/>
@@ -6040,9 +6100,9 @@
     <row r="210" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A210" s="27"/>
       <c r="B210" s="28"/>
-      <c r="C210" s="131"/>
+      <c r="C210" s="83"/>
       <c r="D210" s="28"/>
-      <c r="E210" s="141"/>
+      <c r="E210" s="93"/>
       <c r="F210" s="28"/>
       <c r="G210" s="28"/>
       <c r="H210" s="29"/>
@@ -6053,9 +6113,9 @@
     <row r="211" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A211" s="27"/>
       <c r="B211" s="28"/>
-      <c r="C211" s="131"/>
+      <c r="C211" s="83"/>
       <c r="D211" s="28"/>
-      <c r="E211" s="141"/>
+      <c r="E211" s="93"/>
       <c r="F211" s="28"/>
       <c r="G211" s="28"/>
       <c r="H211" s="29"/>
@@ -6066,9 +6126,9 @@
     <row r="212" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A212" s="27"/>
       <c r="B212" s="28"/>
-      <c r="C212" s="131"/>
+      <c r="C212" s="83"/>
       <c r="D212" s="28"/>
-      <c r="E212" s="141"/>
+      <c r="E212" s="93"/>
       <c r="F212" s="28"/>
       <c r="G212" s="28"/>
       <c r="H212" s="29"/>
@@ -6079,9 +6139,9 @@
     <row r="213" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A213" s="27"/>
       <c r="B213" s="28"/>
-      <c r="C213" s="131"/>
+      <c r="C213" s="83"/>
       <c r="D213" s="28"/>
-      <c r="E213" s="141"/>
+      <c r="E213" s="93"/>
       <c r="F213" s="28"/>
       <c r="G213" s="28"/>
       <c r="H213" s="29"/>
@@ -6092,9 +6152,9 @@
     <row r="214" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A214" s="27"/>
       <c r="B214" s="28"/>
-      <c r="C214" s="131"/>
+      <c r="C214" s="83"/>
       <c r="D214" s="28"/>
-      <c r="E214" s="141"/>
+      <c r="E214" s="93"/>
       <c r="F214" s="28"/>
       <c r="G214" s="28"/>
       <c r="H214" s="29"/>
@@ -6105,9 +6165,9 @@
     <row r="215" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A215" s="27"/>
       <c r="B215" s="28"/>
-      <c r="C215" s="131"/>
+      <c r="C215" s="83"/>
       <c r="D215" s="28"/>
-      <c r="E215" s="141"/>
+      <c r="E215" s="93"/>
       <c r="F215" s="28"/>
       <c r="G215" s="28"/>
       <c r="H215" s="29"/>
@@ -6118,9 +6178,9 @@
     <row r="216" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A216" s="27"/>
       <c r="B216" s="28"/>
-      <c r="C216" s="131"/>
+      <c r="C216" s="83"/>
       <c r="D216" s="28"/>
-      <c r="E216" s="141"/>
+      <c r="E216" s="93"/>
       <c r="F216" s="28"/>
       <c r="G216" s="28"/>
       <c r="H216" s="29"/>
@@ -6131,9 +6191,9 @@
     <row r="217" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A217" s="27"/>
       <c r="B217" s="28"/>
-      <c r="C217" s="131"/>
+      <c r="C217" s="83"/>
       <c r="D217" s="28"/>
-      <c r="E217" s="141"/>
+      <c r="E217" s="93"/>
       <c r="F217" s="28"/>
       <c r="G217" s="28"/>
       <c r="H217" s="29"/>
@@ -6144,9 +6204,9 @@
     <row r="218" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A218" s="27"/>
       <c r="B218" s="28"/>
-      <c r="C218" s="131"/>
+      <c r="C218" s="83"/>
       <c r="D218" s="28"/>
-      <c r="E218" s="141"/>
+      <c r="E218" s="93"/>
       <c r="F218" s="28"/>
       <c r="G218" s="28"/>
       <c r="H218" s="29"/>
@@ -6157,9 +6217,9 @@
     <row r="219" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A219" s="27"/>
       <c r="B219" s="28"/>
-      <c r="C219" s="131"/>
+      <c r="C219" s="83"/>
       <c r="D219" s="28"/>
-      <c r="E219" s="141"/>
+      <c r="E219" s="93"/>
       <c r="F219" s="28"/>
       <c r="G219" s="28"/>
       <c r="H219" s="29"/>
@@ -6170,9 +6230,9 @@
     <row r="220" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A220" s="27"/>
       <c r="B220" s="28"/>
-      <c r="C220" s="131"/>
+      <c r="C220" s="83"/>
       <c r="D220" s="28"/>
-      <c r="E220" s="141"/>
+      <c r="E220" s="93"/>
       <c r="F220" s="28"/>
       <c r="G220" s="28"/>
       <c r="H220" s="29"/>
@@ -6183,9 +6243,9 @@
     <row r="221" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A221" s="27"/>
       <c r="B221" s="28"/>
-      <c r="C221" s="131"/>
+      <c r="C221" s="83"/>
       <c r="D221" s="28"/>
-      <c r="E221" s="141"/>
+      <c r="E221" s="93"/>
       <c r="F221" s="28"/>
       <c r="G221" s="28"/>
       <c r="H221" s="29"/>
@@ -6196,9 +6256,9 @@
     <row r="222" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A222" s="27"/>
       <c r="B222" s="28"/>
-      <c r="C222" s="131"/>
+      <c r="C222" s="83"/>
       <c r="D222" s="28"/>
-      <c r="E222" s="141"/>
+      <c r="E222" s="93"/>
       <c r="F222" s="28"/>
       <c r="G222" s="28"/>
       <c r="H222" s="29"/>
@@ -6209,9 +6269,9 @@
     <row r="223" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A223" s="27"/>
       <c r="B223" s="28"/>
-      <c r="C223" s="131"/>
+      <c r="C223" s="83"/>
       <c r="D223" s="28"/>
-      <c r="E223" s="141"/>
+      <c r="E223" s="93"/>
       <c r="F223" s="28"/>
       <c r="G223" s="28"/>
       <c r="H223" s="29"/>
@@ -6222,9 +6282,9 @@
     <row r="224" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A224" s="27"/>
       <c r="B224" s="28"/>
-      <c r="C224" s="131"/>
+      <c r="C224" s="83"/>
       <c r="D224" s="28"/>
-      <c r="E224" s="141"/>
+      <c r="E224" s="93"/>
       <c r="F224" s="28"/>
       <c r="G224" s="28"/>
       <c r="H224" s="29"/>
@@ -6235,9 +6295,9 @@
     <row r="225" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A225" s="27"/>
       <c r="B225" s="28"/>
-      <c r="C225" s="131"/>
+      <c r="C225" s="83"/>
       <c r="D225" s="28"/>
-      <c r="E225" s="141"/>
+      <c r="E225" s="93"/>
       <c r="F225" s="28"/>
       <c r="G225" s="28"/>
       <c r="H225" s="29"/>
@@ -6248,9 +6308,9 @@
     <row r="226" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A226" s="27"/>
       <c r="B226" s="28"/>
-      <c r="C226" s="131"/>
+      <c r="C226" s="83"/>
       <c r="D226" s="28"/>
-      <c r="E226" s="141"/>
+      <c r="E226" s="93"/>
       <c r="F226" s="28"/>
       <c r="G226" s="28"/>
       <c r="H226" s="29"/>
@@ -6261,9 +6321,9 @@
     <row r="227" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A227" s="27"/>
       <c r="B227" s="28"/>
-      <c r="C227" s="131"/>
+      <c r="C227" s="83"/>
       <c r="D227" s="28"/>
-      <c r="E227" s="141"/>
+      <c r="E227" s="93"/>
       <c r="F227" s="28"/>
       <c r="G227" s="28"/>
       <c r="H227" s="29"/>
@@ -6274,9 +6334,9 @@
     <row r="228" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A228" s="27"/>
       <c r="B228" s="28"/>
-      <c r="C228" s="131"/>
+      <c r="C228" s="83"/>
       <c r="D228" s="28"/>
-      <c r="E228" s="141"/>
+      <c r="E228" s="93"/>
       <c r="F228" s="28"/>
       <c r="G228" s="28"/>
       <c r="H228" s="29"/>
@@ -6287,9 +6347,9 @@
     <row r="229" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A229" s="27"/>
       <c r="B229" s="28"/>
-      <c r="C229" s="131"/>
+      <c r="C229" s="83"/>
       <c r="D229" s="28"/>
-      <c r="E229" s="141"/>
+      <c r="E229" s="93"/>
       <c r="F229" s="28"/>
       <c r="G229" s="28"/>
       <c r="H229" s="29"/>
@@ -6300,9 +6360,9 @@
     <row r="230" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A230" s="27"/>
       <c r="B230" s="28"/>
-      <c r="C230" s="131"/>
+      <c r="C230" s="83"/>
       <c r="D230" s="28"/>
-      <c r="E230" s="141"/>
+      <c r="E230" s="93"/>
       <c r="F230" s="28"/>
       <c r="G230" s="28"/>
       <c r="H230" s="29"/>
@@ -6313,9 +6373,9 @@
     <row r="231" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A231" s="27"/>
       <c r="B231" s="28"/>
-      <c r="C231" s="131"/>
+      <c r="C231" s="83"/>
       <c r="D231" s="28"/>
-      <c r="E231" s="141"/>
+      <c r="E231" s="93"/>
       <c r="F231" s="28"/>
       <c r="G231" s="28"/>
       <c r="H231" s="29"/>
@@ -6326,9 +6386,9 @@
     <row r="232" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A232" s="27"/>
       <c r="B232" s="28"/>
-      <c r="C232" s="131"/>
+      <c r="C232" s="83"/>
       <c r="D232" s="28"/>
-      <c r="E232" s="141"/>
+      <c r="E232" s="93"/>
       <c r="F232" s="28"/>
       <c r="G232" s="28"/>
       <c r="H232" s="29"/>
@@ -6339,9 +6399,9 @@
     <row r="233" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A233" s="27"/>
       <c r="B233" s="28"/>
-      <c r="C233" s="131"/>
+      <c r="C233" s="83"/>
       <c r="D233" s="28"/>
-      <c r="E233" s="141"/>
+      <c r="E233" s="93"/>
       <c r="F233" s="28"/>
       <c r="G233" s="28"/>
       <c r="H233" s="29"/>
@@ -6352,9 +6412,9 @@
     <row r="234" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A234" s="27"/>
       <c r="B234" s="28"/>
-      <c r="C234" s="131"/>
+      <c r="C234" s="83"/>
       <c r="D234" s="28"/>
-      <c r="E234" s="141"/>
+      <c r="E234" s="93"/>
       <c r="F234" s="28"/>
       <c r="G234" s="28"/>
       <c r="H234" s="29"/>
@@ -6365,9 +6425,9 @@
     <row r="235" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A235" s="27"/>
       <c r="B235" s="28"/>
-      <c r="C235" s="131"/>
+      <c r="C235" s="83"/>
       <c r="D235" s="28"/>
-      <c r="E235" s="141"/>
+      <c r="E235" s="93"/>
       <c r="F235" s="28"/>
       <c r="G235" s="28"/>
       <c r="H235" s="29"/>
@@ -6378,9 +6438,9 @@
     <row r="236" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A236" s="27"/>
       <c r="B236" s="28"/>
-      <c r="C236" s="131"/>
+      <c r="C236" s="83"/>
       <c r="D236" s="28"/>
-      <c r="E236" s="141"/>
+      <c r="E236" s="93"/>
       <c r="F236" s="28"/>
       <c r="G236" s="28"/>
       <c r="H236" s="29"/>
@@ -6391,9 +6451,9 @@
     <row r="237" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A237" s="27"/>
       <c r="B237" s="28"/>
-      <c r="C237" s="131"/>
+      <c r="C237" s="83"/>
       <c r="D237" s="28"/>
-      <c r="E237" s="141"/>
+      <c r="E237" s="93"/>
       <c r="F237" s="28"/>
       <c r="G237" s="28"/>
       <c r="H237" s="29"/>
@@ -6404,9 +6464,9 @@
     <row r="238" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A238" s="27"/>
       <c r="B238" s="28"/>
-      <c r="C238" s="131"/>
+      <c r="C238" s="83"/>
       <c r="D238" s="28"/>
-      <c r="E238" s="141"/>
+      <c r="E238" s="93"/>
       <c r="F238" s="28"/>
       <c r="G238" s="28"/>
       <c r="H238" s="29"/>
@@ -6417,9 +6477,9 @@
     <row r="239" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A239" s="27"/>
       <c r="B239" s="28"/>
-      <c r="C239" s="131"/>
+      <c r="C239" s="83"/>
       <c r="D239" s="28"/>
-      <c r="E239" s="141"/>
+      <c r="E239" s="93"/>
       <c r="F239" s="28"/>
       <c r="G239" s="28"/>
       <c r="H239" s="29"/>
@@ -6430,9 +6490,9 @@
     <row r="240" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A240" s="27"/>
       <c r="B240" s="28"/>
-      <c r="C240" s="131"/>
+      <c r="C240" s="83"/>
       <c r="D240" s="28"/>
-      <c r="E240" s="141"/>
+      <c r="E240" s="93"/>
       <c r="F240" s="28"/>
       <c r="G240" s="28"/>
       <c r="H240" s="29"/>
@@ -6443,9 +6503,9 @@
     <row r="241" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A241" s="27"/>
       <c r="B241" s="28"/>
-      <c r="C241" s="131"/>
+      <c r="C241" s="83"/>
       <c r="D241" s="28"/>
-      <c r="E241" s="141"/>
+      <c r="E241" s="93"/>
       <c r="F241" s="28"/>
       <c r="G241" s="28"/>
       <c r="H241" s="29"/>
@@ -6456,9 +6516,9 @@
     <row r="242" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A242" s="27"/>
       <c r="B242" s="28"/>
-      <c r="C242" s="131"/>
+      <c r="C242" s="83"/>
       <c r="D242" s="28"/>
-      <c r="E242" s="141"/>
+      <c r="E242" s="93"/>
       <c r="F242" s="28"/>
       <c r="G242" s="28"/>
       <c r="H242" s="29"/>
@@ -6469,9 +6529,9 @@
     <row r="243" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A243" s="27"/>
       <c r="B243" s="28"/>
-      <c r="C243" s="131"/>
+      <c r="C243" s="83"/>
       <c r="D243" s="28"/>
-      <c r="E243" s="141"/>
+      <c r="E243" s="93"/>
       <c r="F243" s="28"/>
       <c r="G243" s="28"/>
       <c r="H243" s="29"/>
@@ -6482,9 +6542,9 @@
     <row r="244" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A244" s="27"/>
       <c r="B244" s="28"/>
-      <c r="C244" s="131"/>
+      <c r="C244" s="83"/>
       <c r="D244" s="28"/>
-      <c r="E244" s="141"/>
+      <c r="E244" s="93"/>
       <c r="F244" s="28"/>
       <c r="G244" s="28"/>
       <c r="H244" s="29"/>
@@ -6495,9 +6555,9 @@
     <row r="245" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A245" s="27"/>
       <c r="B245" s="28"/>
-      <c r="C245" s="131"/>
+      <c r="C245" s="83"/>
       <c r="D245" s="28"/>
-      <c r="E245" s="141"/>
+      <c r="E245" s="93"/>
       <c r="F245" s="28"/>
       <c r="G245" s="28"/>
       <c r="H245" s="29"/>
@@ -6508,9 +6568,9 @@
     <row r="246" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A246" s="27"/>
       <c r="B246" s="28"/>
-      <c r="C246" s="131"/>
+      <c r="C246" s="83"/>
       <c r="D246" s="28"/>
-      <c r="E246" s="141"/>
+      <c r="E246" s="93"/>
       <c r="F246" s="28"/>
       <c r="G246" s="28"/>
       <c r="H246" s="29"/>
@@ -6521,9 +6581,9 @@
     <row r="247" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A247" s="27"/>
       <c r="B247" s="28"/>
-      <c r="C247" s="131"/>
+      <c r="C247" s="83"/>
       <c r="D247" s="28"/>
-      <c r="E247" s="141"/>
+      <c r="E247" s="93"/>
       <c r="F247" s="28"/>
       <c r="G247" s="28"/>
       <c r="H247" s="29"/>
@@ -6534,9 +6594,9 @@
     <row r="248" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A248" s="27"/>
       <c r="B248" s="28"/>
-      <c r="C248" s="131"/>
+      <c r="C248" s="83"/>
       <c r="D248" s="28"/>
-      <c r="E248" s="141"/>
+      <c r="E248" s="93"/>
       <c r="F248" s="28"/>
       <c r="G248" s="28"/>
       <c r="H248" s="29"/>
@@ -6547,9 +6607,9 @@
     <row r="249" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A249" s="27"/>
       <c r="B249" s="28"/>
-      <c r="C249" s="131"/>
+      <c r="C249" s="83"/>
       <c r="D249" s="28"/>
-      <c r="E249" s="141"/>
+      <c r="E249" s="93"/>
       <c r="F249" s="28"/>
       <c r="G249" s="28"/>
       <c r="H249" s="29"/>
@@ -6560,9 +6620,9 @@
     <row r="250" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A250" s="27"/>
       <c r="B250" s="28"/>
-      <c r="C250" s="131"/>
+      <c r="C250" s="83"/>
       <c r="D250" s="28"/>
-      <c r="E250" s="141"/>
+      <c r="E250" s="93"/>
       <c r="F250" s="28"/>
       <c r="G250" s="28"/>
       <c r="H250" s="29"/>
@@ -6573,9 +6633,9 @@
     <row r="251" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A251" s="27"/>
       <c r="B251" s="28"/>
-      <c r="C251" s="131"/>
+      <c r="C251" s="83"/>
       <c r="D251" s="28"/>
-      <c r="E251" s="141"/>
+      <c r="E251" s="93"/>
       <c r="F251" s="28"/>
       <c r="G251" s="28"/>
       <c r="H251" s="29"/>
@@ -6586,9 +6646,9 @@
     <row r="252" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A252" s="27"/>
       <c r="B252" s="28"/>
-      <c r="C252" s="131"/>
+      <c r="C252" s="83"/>
       <c r="D252" s="28"/>
-      <c r="E252" s="141"/>
+      <c r="E252" s="93"/>
       <c r="F252" s="28"/>
       <c r="G252" s="28"/>
       <c r="H252" s="29"/>
@@ -6599,9 +6659,9 @@
     <row r="253" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A253" s="27"/>
       <c r="B253" s="28"/>
-      <c r="C253" s="131"/>
+      <c r="C253" s="83"/>
       <c r="D253" s="28"/>
-      <c r="E253" s="141"/>
+      <c r="E253" s="93"/>
       <c r="F253" s="28"/>
       <c r="G253" s="28"/>
       <c r="H253" s="29"/>
@@ -6612,9 +6672,9 @@
     <row r="254" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A254" s="27"/>
       <c r="B254" s="28"/>
-      <c r="C254" s="131"/>
+      <c r="C254" s="83"/>
       <c r="D254" s="28"/>
-      <c r="E254" s="141"/>
+      <c r="E254" s="93"/>
       <c r="F254" s="28"/>
       <c r="G254" s="28"/>
       <c r="H254" s="29"/>
@@ -6625,9 +6685,9 @@
     <row r="255" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A255" s="27"/>
       <c r="B255" s="28"/>
-      <c r="C255" s="131"/>
+      <c r="C255" s="83"/>
       <c r="D255" s="28"/>
-      <c r="E255" s="141"/>
+      <c r="E255" s="93"/>
       <c r="F255" s="28"/>
       <c r="G255" s="28"/>
       <c r="H255" s="29"/>
@@ -6638,9 +6698,9 @@
     <row r="256" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A256" s="27"/>
       <c r="B256" s="28"/>
-      <c r="C256" s="131"/>
+      <c r="C256" s="83"/>
       <c r="D256" s="28"/>
-      <c r="E256" s="141"/>
+      <c r="E256" s="93"/>
       <c r="F256" s="28"/>
       <c r="G256" s="28"/>
       <c r="H256" s="29"/>
@@ -6651,9 +6711,9 @@
     <row r="257" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A257" s="27"/>
       <c r="B257" s="28"/>
-      <c r="C257" s="131"/>
+      <c r="C257" s="83"/>
       <c r="D257" s="28"/>
-      <c r="E257" s="141"/>
+      <c r="E257" s="93"/>
       <c r="F257" s="28"/>
       <c r="G257" s="28"/>
       <c r="H257" s="29"/>
@@ -6664,9 +6724,9 @@
     <row r="258" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A258" s="27"/>
       <c r="B258" s="28"/>
-      <c r="C258" s="131"/>
+      <c r="C258" s="83"/>
       <c r="D258" s="28"/>
-      <c r="E258" s="141"/>
+      <c r="E258" s="93"/>
       <c r="F258" s="28"/>
       <c r="G258" s="28"/>
       <c r="H258" s="29"/>
@@ -6677,9 +6737,9 @@
     <row r="259" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A259" s="27"/>
       <c r="B259" s="28"/>
-      <c r="C259" s="131"/>
+      <c r="C259" s="83"/>
       <c r="D259" s="28"/>
-      <c r="E259" s="141"/>
+      <c r="E259" s="93"/>
       <c r="F259" s="28"/>
       <c r="G259" s="28"/>
       <c r="H259" s="29"/>
@@ -6690,9 +6750,9 @@
     <row r="260" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A260" s="27"/>
       <c r="B260" s="28"/>
-      <c r="C260" s="131"/>
+      <c r="C260" s="83"/>
       <c r="D260" s="28"/>
-      <c r="E260" s="141"/>
+      <c r="E260" s="93"/>
       <c r="F260" s="28"/>
       <c r="G260" s="28"/>
       <c r="H260" s="29"/>
@@ -6703,9 +6763,9 @@
     <row r="261" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A261" s="27"/>
       <c r="B261" s="28"/>
-      <c r="C261" s="131"/>
+      <c r="C261" s="83"/>
       <c r="D261" s="28"/>
-      <c r="E261" s="141"/>
+      <c r="E261" s="93"/>
       <c r="F261" s="28"/>
       <c r="G261" s="28"/>
       <c r="H261" s="29"/>
@@ -6716,9 +6776,9 @@
     <row r="262" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A262" s="27"/>
       <c r="B262" s="28"/>
-      <c r="C262" s="131"/>
+      <c r="C262" s="83"/>
       <c r="D262" s="28"/>
-      <c r="E262" s="141"/>
+      <c r="E262" s="93"/>
       <c r="F262" s="28"/>
       <c r="G262" s="28"/>
       <c r="H262" s="29"/>
@@ -6729,9 +6789,9 @@
     <row r="263" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A263" s="27"/>
       <c r="B263" s="28"/>
-      <c r="C263" s="131"/>
+      <c r="C263" s="83"/>
       <c r="D263" s="28"/>
-      <c r="E263" s="141"/>
+      <c r="E263" s="93"/>
       <c r="F263" s="28"/>
       <c r="G263" s="28"/>
       <c r="H263" s="29"/>
@@ -6742,9 +6802,9 @@
     <row r="264" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A264" s="27"/>
       <c r="B264" s="28"/>
-      <c r="C264" s="131"/>
+      <c r="C264" s="83"/>
       <c r="D264" s="28"/>
-      <c r="E264" s="141"/>
+      <c r="E264" s="93"/>
       <c r="F264" s="28"/>
       <c r="G264" s="28"/>
       <c r="H264" s="29"/>
@@ -6755,9 +6815,9 @@
     <row r="265" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A265" s="27"/>
       <c r="B265" s="28"/>
-      <c r="C265" s="131"/>
+      <c r="C265" s="83"/>
       <c r="D265" s="28"/>
-      <c r="E265" s="141"/>
+      <c r="E265" s="93"/>
       <c r="F265" s="28"/>
       <c r="G265" s="28"/>
       <c r="H265" s="29"/>
@@ -6768,9 +6828,9 @@
     <row r="266" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A266" s="27"/>
       <c r="B266" s="28"/>
-      <c r="C266" s="131"/>
+      <c r="C266" s="83"/>
       <c r="D266" s="28"/>
-      <c r="E266" s="141"/>
+      <c r="E266" s="93"/>
       <c r="F266" s="28"/>
       <c r="G266" s="28"/>
       <c r="H266" s="29"/>
@@ -6781,9 +6841,9 @@
     <row r="267" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A267" s="27"/>
       <c r="B267" s="28"/>
-      <c r="C267" s="131"/>
+      <c r="C267" s="83"/>
       <c r="D267" s="28"/>
-      <c r="E267" s="141"/>
+      <c r="E267" s="93"/>
       <c r="F267" s="28"/>
       <c r="G267" s="28"/>
       <c r="H267" s="29"/>
@@ -6794,9 +6854,9 @@
     <row r="268" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A268" s="27"/>
       <c r="B268" s="28"/>
-      <c r="C268" s="131"/>
+      <c r="C268" s="83"/>
       <c r="D268" s="28"/>
-      <c r="E268" s="141"/>
+      <c r="E268" s="93"/>
       <c r="F268" s="28"/>
       <c r="G268" s="28"/>
       <c r="H268" s="29"/>
@@ -6807,9 +6867,9 @@
     <row r="269" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A269" s="27"/>
       <c r="B269" s="28"/>
-      <c r="C269" s="131"/>
+      <c r="C269" s="83"/>
       <c r="D269" s="28"/>
-      <c r="E269" s="141"/>
+      <c r="E269" s="93"/>
       <c r="F269" s="28"/>
       <c r="G269" s="28"/>
       <c r="H269" s="29"/>
@@ -6820,9 +6880,9 @@
     <row r="270" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A270" s="27"/>
       <c r="B270" s="28"/>
-      <c r="C270" s="131"/>
+      <c r="C270" s="83"/>
       <c r="D270" s="28"/>
-      <c r="E270" s="141"/>
+      <c r="E270" s="93"/>
       <c r="F270" s="28"/>
       <c r="G270" s="28"/>
       <c r="H270" s="29"/>
@@ -6833,9 +6893,9 @@
     <row r="271" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A271" s="27"/>
       <c r="B271" s="28"/>
-      <c r="C271" s="131"/>
+      <c r="C271" s="83"/>
       <c r="D271" s="28"/>
-      <c r="E271" s="141"/>
+      <c r="E271" s="93"/>
       <c r="F271" s="28"/>
       <c r="G271" s="28"/>
       <c r="H271" s="29"/>
@@ -6846,9 +6906,9 @@
     <row r="272" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A272" s="27"/>
       <c r="B272" s="28"/>
-      <c r="C272" s="131"/>
+      <c r="C272" s="83"/>
       <c r="D272" s="28"/>
-      <c r="E272" s="141"/>
+      <c r="E272" s="93"/>
       <c r="F272" s="28"/>
       <c r="G272" s="28"/>
       <c r="H272" s="29"/>
@@ -6859,9 +6919,9 @@
     <row r="273" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A273" s="27"/>
       <c r="B273" s="28"/>
-      <c r="C273" s="131"/>
+      <c r="C273" s="83"/>
       <c r="D273" s="28"/>
-      <c r="E273" s="141"/>
+      <c r="E273" s="93"/>
       <c r="F273" s="28"/>
       <c r="G273" s="28"/>
       <c r="H273" s="29"/>
@@ -6872,9 +6932,9 @@
     <row r="274" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A274" s="27"/>
       <c r="B274" s="28"/>
-      <c r="C274" s="131"/>
+      <c r="C274" s="83"/>
       <c r="D274" s="28"/>
-      <c r="E274" s="141"/>
+      <c r="E274" s="93"/>
       <c r="F274" s="28"/>
       <c r="G274" s="28"/>
       <c r="H274" s="29"/>
@@ -6885,9 +6945,9 @@
     <row r="275" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A275" s="27"/>
       <c r="B275" s="28"/>
-      <c r="C275" s="131"/>
+      <c r="C275" s="83"/>
       <c r="D275" s="28"/>
-      <c r="E275" s="141"/>
+      <c r="E275" s="93"/>
       <c r="F275" s="28"/>
       <c r="G275" s="28"/>
       <c r="H275" s="29"/>
@@ -6898,9 +6958,9 @@
     <row r="276" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A276" s="27"/>
       <c r="B276" s="28"/>
-      <c r="C276" s="131"/>
+      <c r="C276" s="83"/>
       <c r="D276" s="28"/>
-      <c r="E276" s="141"/>
+      <c r="E276" s="93"/>
       <c r="F276" s="28"/>
       <c r="G276" s="28"/>
       <c r="H276" s="29"/>
@@ -6911,9 +6971,9 @@
     <row r="277" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A277" s="27"/>
       <c r="B277" s="28"/>
-      <c r="C277" s="131"/>
+      <c r="C277" s="83"/>
       <c r="D277" s="28"/>
-      <c r="E277" s="141"/>
+      <c r="E277" s="93"/>
       <c r="F277" s="28"/>
       <c r="G277" s="28"/>
       <c r="H277" s="29"/>
@@ -6924,9 +6984,9 @@
     <row r="278" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A278" s="27"/>
       <c r="B278" s="28"/>
-      <c r="C278" s="131"/>
+      <c r="C278" s="83"/>
       <c r="D278" s="28"/>
-      <c r="E278" s="141"/>
+      <c r="E278" s="93"/>
       <c r="F278" s="28"/>
       <c r="G278" s="28"/>
       <c r="H278" s="29"/>
@@ -6937,9 +6997,9 @@
     <row r="279" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A279" s="27"/>
       <c r="B279" s="28"/>
-      <c r="C279" s="131"/>
+      <c r="C279" s="83"/>
       <c r="D279" s="28"/>
-      <c r="E279" s="141"/>
+      <c r="E279" s="93"/>
       <c r="F279" s="28"/>
       <c r="G279" s="28"/>
       <c r="H279" s="29"/>
@@ -6950,9 +7010,9 @@
     <row r="280" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A280" s="27"/>
       <c r="B280" s="28"/>
-      <c r="C280" s="131"/>
+      <c r="C280" s="83"/>
       <c r="D280" s="28"/>
-      <c r="E280" s="141"/>
+      <c r="E280" s="93"/>
       <c r="F280" s="28"/>
       <c r="G280" s="28"/>
       <c r="H280" s="29"/>
@@ -6963,9 +7023,9 @@
     <row r="281" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A281" s="27"/>
       <c r="B281" s="28"/>
-      <c r="C281" s="131"/>
+      <c r="C281" s="83"/>
       <c r="D281" s="28"/>
-      <c r="E281" s="141"/>
+      <c r="E281" s="93"/>
       <c r="F281" s="28"/>
       <c r="G281" s="28"/>
       <c r="H281" s="29"/>
@@ -6976,9 +7036,9 @@
     <row r="282" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A282" s="27"/>
       <c r="B282" s="28"/>
-      <c r="C282" s="131"/>
+      <c r="C282" s="83"/>
       <c r="D282" s="28"/>
-      <c r="E282" s="141"/>
+      <c r="E282" s="93"/>
       <c r="F282" s="28"/>
       <c r="G282" s="28"/>
       <c r="H282" s="29"/>
@@ -6989,9 +7049,9 @@
     <row r="283" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A283" s="27"/>
       <c r="B283" s="28"/>
-      <c r="C283" s="131"/>
+      <c r="C283" s="83"/>
       <c r="D283" s="28"/>
-      <c r="E283" s="141"/>
+      <c r="E283" s="93"/>
       <c r="F283" s="28"/>
       <c r="G283" s="28"/>
       <c r="H283" s="29"/>
@@ -7002,9 +7062,9 @@
     <row r="284" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A284" s="27"/>
       <c r="B284" s="28"/>
-      <c r="C284" s="131"/>
+      <c r="C284" s="83"/>
       <c r="D284" s="28"/>
-      <c r="E284" s="141"/>
+      <c r="E284" s="93"/>
       <c r="F284" s="28"/>
       <c r="G284" s="28"/>
       <c r="H284" s="29"/>
@@ -7015,9 +7075,9 @@
     <row r="285" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A285" s="27"/>
       <c r="B285" s="28"/>
-      <c r="C285" s="131"/>
+      <c r="C285" s="83"/>
       <c r="D285" s="28"/>
-      <c r="E285" s="141"/>
+      <c r="E285" s="93"/>
       <c r="F285" s="28"/>
       <c r="G285" s="28"/>
       <c r="H285" s="29"/>
@@ -7028,9 +7088,9 @@
     <row r="286" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A286" s="27"/>
       <c r="B286" s="28"/>
-      <c r="C286" s="131"/>
+      <c r="C286" s="83"/>
       <c r="D286" s="28"/>
-      <c r="E286" s="141"/>
+      <c r="E286" s="93"/>
       <c r="F286" s="28"/>
       <c r="G286" s="28"/>
       <c r="H286" s="29"/>
@@ -7041,9 +7101,9 @@
     <row r="287" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A287" s="27"/>
       <c r="B287" s="28"/>
-      <c r="C287" s="131"/>
+      <c r="C287" s="83"/>
       <c r="D287" s="28"/>
-      <c r="E287" s="141"/>
+      <c r="E287" s="93"/>
       <c r="F287" s="28"/>
       <c r="G287" s="28"/>
       <c r="H287" s="29"/>
@@ -7054,9 +7114,9 @@
     <row r="288" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A288" s="27"/>
       <c r="B288" s="28"/>
-      <c r="C288" s="131"/>
+      <c r="C288" s="83"/>
       <c r="D288" s="28"/>
-      <c r="E288" s="141"/>
+      <c r="E288" s="93"/>
       <c r="F288" s="28"/>
       <c r="G288" s="28"/>
       <c r="H288" s="29"/>
@@ -7067,9 +7127,9 @@
     <row r="289" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A289" s="27"/>
       <c r="B289" s="28"/>
-      <c r="C289" s="131"/>
+      <c r="C289" s="83"/>
       <c r="D289" s="28"/>
-      <c r="E289" s="141"/>
+      <c r="E289" s="93"/>
       <c r="F289" s="28"/>
       <c r="G289" s="28"/>
       <c r="H289" s="29"/>
@@ -7080,9 +7140,9 @@
     <row r="290" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A290" s="27"/>
       <c r="B290" s="28"/>
-      <c r="C290" s="131"/>
+      <c r="C290" s="83"/>
       <c r="D290" s="28"/>
-      <c r="E290" s="141"/>
+      <c r="E290" s="93"/>
       <c r="F290" s="28"/>
       <c r="G290" s="28"/>
       <c r="H290" s="29"/>
@@ -7093,9 +7153,9 @@
     <row r="291" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A291" s="27"/>
       <c r="B291" s="28"/>
-      <c r="C291" s="131"/>
+      <c r="C291" s="83"/>
       <c r="D291" s="28"/>
-      <c r="E291" s="141"/>
+      <c r="E291" s="93"/>
       <c r="F291" s="28"/>
       <c r="G291" s="28"/>
       <c r="H291" s="29"/>
@@ -7106,9 +7166,9 @@
     <row r="292" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A292" s="27"/>
       <c r="B292" s="28"/>
-      <c r="C292" s="131"/>
+      <c r="C292" s="83"/>
       <c r="D292" s="28"/>
-      <c r="E292" s="141"/>
+      <c r="E292" s="93"/>
       <c r="F292" s="28"/>
       <c r="G292" s="28"/>
       <c r="H292" s="29"/>
@@ -7119,9 +7179,9 @@
     <row r="293" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A293" s="27"/>
       <c r="B293" s="28"/>
-      <c r="C293" s="131"/>
+      <c r="C293" s="83"/>
       <c r="D293" s="28"/>
-      <c r="E293" s="141"/>
+      <c r="E293" s="93"/>
       <c r="F293" s="28"/>
       <c r="G293" s="28"/>
       <c r="H293" s="29"/>
@@ -7132,9 +7192,9 @@
     <row r="294" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A294" s="27"/>
       <c r="B294" s="28"/>
-      <c r="C294" s="131"/>
+      <c r="C294" s="83"/>
       <c r="D294" s="28"/>
-      <c r="E294" s="141"/>
+      <c r="E294" s="93"/>
       <c r="F294" s="28"/>
       <c r="G294" s="28"/>
       <c r="H294" s="29"/>
@@ -7145,9 +7205,9 @@
     <row r="295" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A295" s="27"/>
       <c r="B295" s="28"/>
-      <c r="C295" s="131"/>
+      <c r="C295" s="83"/>
       <c r="D295" s="28"/>
-      <c r="E295" s="141"/>
+      <c r="E295" s="93"/>
       <c r="F295" s="28"/>
       <c r="G295" s="28"/>
       <c r="H295" s="29"/>
@@ -7158,9 +7218,9 @@
     <row r="296" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A296" s="27"/>
       <c r="B296" s="28"/>
-      <c r="C296" s="131"/>
+      <c r="C296" s="83"/>
       <c r="D296" s="28"/>
-      <c r="E296" s="141"/>
+      <c r="E296" s="93"/>
       <c r="F296" s="28"/>
       <c r="G296" s="28"/>
       <c r="H296" s="29"/>
@@ -7171,9 +7231,9 @@
     <row r="297" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A297" s="27"/>
       <c r="B297" s="28"/>
-      <c r="C297" s="131"/>
+      <c r="C297" s="83"/>
       <c r="D297" s="28"/>
-      <c r="E297" s="141"/>
+      <c r="E297" s="93"/>
       <c r="F297" s="28"/>
       <c r="G297" s="28"/>
       <c r="H297" s="29"/>
@@ -7184,9 +7244,9 @@
     <row r="298" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A298" s="27"/>
       <c r="B298" s="28"/>
-      <c r="C298" s="131"/>
+      <c r="C298" s="83"/>
       <c r="D298" s="28"/>
-      <c r="E298" s="141"/>
+      <c r="E298" s="93"/>
       <c r="F298" s="28"/>
       <c r="G298" s="28"/>
       <c r="H298" s="29"/>
@@ -7197,9 +7257,9 @@
     <row r="299" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A299" s="27"/>
       <c r="B299" s="28"/>
-      <c r="C299" s="131"/>
+      <c r="C299" s="83"/>
       <c r="D299" s="28"/>
-      <c r="E299" s="141"/>
+      <c r="E299" s="93"/>
       <c r="F299" s="28"/>
       <c r="G299" s="28"/>
       <c r="H299" s="29"/>
@@ -7210,9 +7270,9 @@
     <row r="300" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A300" s="27"/>
       <c r="B300" s="28"/>
-      <c r="C300" s="131"/>
+      <c r="C300" s="83"/>
       <c r="D300" s="28"/>
-      <c r="E300" s="141"/>
+      <c r="E300" s="93"/>
       <c r="F300" s="28"/>
       <c r="G300" s="28"/>
       <c r="H300" s="29"/>
@@ -7223,9 +7283,9 @@
     <row r="301" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A301" s="27"/>
       <c r="B301" s="28"/>
-      <c r="C301" s="131"/>
+      <c r="C301" s="83"/>
       <c r="D301" s="28"/>
-      <c r="E301" s="141"/>
+      <c r="E301" s="93"/>
       <c r="F301" s="28"/>
       <c r="G301" s="28"/>
       <c r="H301" s="29"/>
@@ -7236,9 +7296,9 @@
     <row r="302" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A302" s="27"/>
       <c r="B302" s="28"/>
-      <c r="C302" s="131"/>
+      <c r="C302" s="83"/>
       <c r="D302" s="28"/>
-      <c r="E302" s="141"/>
+      <c r="E302" s="93"/>
       <c r="F302" s="28"/>
       <c r="G302" s="28"/>
       <c r="H302" s="29"/>
@@ -7249,9 +7309,9 @@
     <row r="303" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A303" s="27"/>
       <c r="B303" s="28"/>
-      <c r="C303" s="131"/>
+      <c r="C303" s="83"/>
       <c r="D303" s="28"/>
-      <c r="E303" s="141"/>
+      <c r="E303" s="93"/>
       <c r="F303" s="28"/>
       <c r="G303" s="28"/>
       <c r="H303" s="29"/>
@@ -7262,9 +7322,9 @@
     <row r="304" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A304" s="27"/>
       <c r="B304" s="28"/>
-      <c r="C304" s="131"/>
+      <c r="C304" s="83"/>
       <c r="D304" s="28"/>
-      <c r="E304" s="141"/>
+      <c r="E304" s="93"/>
       <c r="F304" s="28"/>
       <c r="G304" s="28"/>
       <c r="H304" s="29"/>
@@ -7275,9 +7335,9 @@
     <row r="305" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A305" s="27"/>
       <c r="B305" s="28"/>
-      <c r="C305" s="131"/>
+      <c r="C305" s="83"/>
       <c r="D305" s="28"/>
-      <c r="E305" s="141"/>
+      <c r="E305" s="93"/>
       <c r="F305" s="28"/>
       <c r="G305" s="28"/>
       <c r="H305" s="29"/>
@@ -7288,9 +7348,9 @@
     <row r="306" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A306" s="27"/>
       <c r="B306" s="28"/>
-      <c r="C306" s="131"/>
+      <c r="C306" s="83"/>
       <c r="D306" s="28"/>
-      <c r="E306" s="141"/>
+      <c r="E306" s="93"/>
       <c r="F306" s="28"/>
       <c r="G306" s="28"/>
       <c r="H306" s="29"/>
@@ -7301,9 +7361,9 @@
     <row r="307" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A307" s="27"/>
       <c r="B307" s="28"/>
-      <c r="C307" s="131"/>
+      <c r="C307" s="83"/>
       <c r="D307" s="28"/>
-      <c r="E307" s="141"/>
+      <c r="E307" s="93"/>
       <c r="F307" s="28"/>
       <c r="G307" s="28"/>
       <c r="H307" s="29"/>
@@ -7314,9 +7374,9 @@
     <row r="308" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A308" s="27"/>
       <c r="B308" s="28"/>
-      <c r="C308" s="131"/>
+      <c r="C308" s="83"/>
       <c r="D308" s="28"/>
-      <c r="E308" s="141"/>
+      <c r="E308" s="93"/>
       <c r="F308" s="28"/>
       <c r="G308" s="28"/>
       <c r="H308" s="29"/>
@@ -7327,9 +7387,9 @@
     <row r="309" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A309" s="27"/>
       <c r="B309" s="28"/>
-      <c r="C309" s="131"/>
+      <c r="C309" s="83"/>
       <c r="D309" s="28"/>
-      <c r="E309" s="141"/>
+      <c r="E309" s="93"/>
       <c r="F309" s="28"/>
       <c r="G309" s="28"/>
       <c r="H309" s="29"/>
@@ -7340,9 +7400,9 @@
     <row r="310" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A310" s="27"/>
       <c r="B310" s="28"/>
-      <c r="C310" s="131"/>
+      <c r="C310" s="83"/>
       <c r="D310" s="28"/>
-      <c r="E310" s="141"/>
+      <c r="E310" s="93"/>
       <c r="F310" s="28"/>
       <c r="G310" s="28"/>
       <c r="H310" s="29"/>
@@ -7351,12 +7411,33 @@
       <c r="K310" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="C21:C33"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C54"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="C34:C36"/>
+  <mergeCells count="47">
+    <mergeCell ref="H61:H72"/>
+    <mergeCell ref="H74:H83"/>
+    <mergeCell ref="A37:A83"/>
+    <mergeCell ref="B37:B83"/>
+    <mergeCell ref="A84:K85"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="H37:H45"/>
+    <mergeCell ref="H46:H51"/>
+    <mergeCell ref="H52:H60"/>
+    <mergeCell ref="I55:I60"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="C61:C83"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A20:A33"/>
+    <mergeCell ref="B20:B33"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="I28:I33"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D28:D33"/>
     <mergeCell ref="A86:K86"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B8"/>
@@ -7373,31 +7454,11 @@
     <mergeCell ref="J14:J18"/>
     <mergeCell ref="J28:J33"/>
     <mergeCell ref="K28:K33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A20:A33"/>
-    <mergeCell ref="B20:B33"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="I28:I33"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="H61:H72"/>
-    <mergeCell ref="H74:H83"/>
-    <mergeCell ref="A37:A83"/>
-    <mergeCell ref="B37:B83"/>
-    <mergeCell ref="A84:K85"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="H37:H45"/>
-    <mergeCell ref="H46:H51"/>
-    <mergeCell ref="H52:H60"/>
-    <mergeCell ref="I55:I60"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="C61:C83"/>
+    <mergeCell ref="C21:C33"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C54"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
